--- a/R_analysis/summary_stats/SSFA_summary-stats.xlsx
+++ b/R_analysis/summary_stats/SSFA_summary-stats.xlsx
@@ -17,21 +17,21 @@
     <t xml:space="preserve">Dataset</t>
   </si>
   <si>
+    <t xml:space="preserve">Diet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before.after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMP_cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Software</t>
   </si>
   <si>
-    <t xml:space="preserve">Diet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before.after</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMP_cat</t>
-  </si>
-  <si>
     <t xml:space="preserve">NMP.n</t>
   </si>
   <si>
@@ -68,22 +68,22 @@
     <t xml:space="preserve">epLsar.sd</t>
   </si>
   <si>
-    <t xml:space="preserve">R².n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R².min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R².max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R².mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R².median</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R².sd</t>
+    <t xml:space="preserve">Rsquared.n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rsquared.min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rsquared.max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rsquared.mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rsquared.median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rsquared.sd</t>
   </si>
   <si>
     <t xml:space="preserve">Asfc.n</t>
@@ -179,13 +179,16 @@
     <t xml:space="preserve">GuineaPigs</t>
   </si>
   <si>
+    <t xml:space="preserve">Dry bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-5%</t>
+  </si>
+  <si>
     <t xml:space="preserve">ConfoMap</t>
   </si>
   <si>
-    <t xml:space="preserve">Dry bamboo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-5%</t>
+    <t xml:space="preserve">Toothfrax</t>
   </si>
   <si>
     <t xml:space="preserve">5-10%</t>
@@ -200,7 +203,19 @@
     <t xml:space="preserve">Dry lucerne</t>
   </si>
   <si>
-    <t xml:space="preserve">Toothfrax</t>
+    <t xml:space="preserve">Sheeps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clover+dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grass+dust</t>
   </si>
   <si>
     <t xml:space="preserve">Lithics</t>
@@ -222,21 +237,6 @@
   </si>
   <si>
     <t xml:space="preserve">BrushDirt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheeps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clover+dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grass+dust</t>
   </si>
 </sst>
 </file>
@@ -739,11 +739,11 @@
       <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2" t="s">
         <v>56</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
       <c r="F2" t="s">
         <v>57</v>
       </c>
@@ -899,158 +899,154 @@
       <c r="B3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
       <c r="F3" t="s">
         <v>58</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H3" t="n">
-        <v>5.052593134</v>
+        <v>0.7173119065</v>
       </c>
       <c r="I3" t="n">
-        <v>7.842220599</v>
+        <v>4.018261505</v>
       </c>
       <c r="J3" t="n">
-        <v>6.1249086925</v>
+        <v>2.30627766085294</v>
       </c>
       <c r="K3" t="n">
-        <v>5.8024105185</v>
+        <v>2.194302411</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22994183121831</v>
+        <v>0.849620183857009</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003670017665</v>
+        <v>0.003345</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005607542496</v>
+        <v>0.006601</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00454762234725</v>
+        <v>0.00534129411764706</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.004456464614</v>
+        <v>0.005302</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00101584943227232</v>
+        <v>0.000866056202326521</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9933977959</v>
+        <v>0.997269</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9970323079</v>
+        <v>0.999664</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9956409149</v>
+        <v>0.999067470588235</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9960667779</v>
+        <v>0.999271</v>
       </c>
       <c r="X3" t="n">
-        <v>0.00156320752799058</v>
+        <v>0.000687648267434663</v>
       </c>
       <c r="Y3" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.84006178</v>
+        <v>9.470493</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.58113502</v>
+        <v>20.877856</v>
       </c>
       <c r="AB3" t="n">
-        <v>28.7650732175</v>
+        <v>13.4485883529412</v>
       </c>
       <c r="AC3" t="n">
-        <v>25.819548035</v>
+        <v>11.994841</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.56700158498214</v>
+        <v>3.38928124980305</v>
       </c>
       <c r="AE3" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.3303685919</v>
+        <v>0.119219</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.5227737671</v>
+        <v>0.119219</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.39855235345</v>
+        <v>0.119219</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.3705335274</v>
+        <v>0.119219</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0849511510119237</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.189112491</v>
+        <v>0.112747374019717</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.2698123118</v>
+        <v>0.273638072468425</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.235363134575</v>
+        <v>0.187225494763084</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.24126386775</v>
+        <v>0.170848339610136</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.033842016264571</v>
+        <v>0.0496806963146771</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.3249214466</v>
+        <v>0.254888059448722</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.4406215037</v>
+        <v>0.428174853391345</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.39502827485</v>
+        <v>0.333887526731688</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.40728507455</v>
+        <v>0.33833889834854</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0529879798561664</v>
+        <v>0.0512348882696614</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0.01906003541</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0.02003512697</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0.0195128705675</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0.019478159945</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0.000497636607071642</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AX3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3"/>
+      <c r="BB3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1059,157 +1055,157 @@
       <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
+      <c r="C4"/>
       <c r="D4"/>
-      <c r="E4"/>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>10.47041636</v>
+        <v>5.052593134</v>
       </c>
       <c r="I4" t="n">
-        <v>11.32359386</v>
+        <v>7.842220599</v>
       </c>
       <c r="J4" t="n">
-        <v>11.0063306533333</v>
+        <v>6.1249086925</v>
       </c>
       <c r="K4" t="n">
-        <v>11.22498174</v>
+        <v>5.8024105185</v>
       </c>
       <c r="L4" t="n">
-        <v>0.466727098958212</v>
+        <v>1.22994183121831</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00293632711</v>
+        <v>0.003670017665</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005330963943</v>
+        <v>0.005607542496</v>
       </c>
       <c r="P4" t="n">
-        <v>0.004073788188</v>
+        <v>0.00454762234725</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.003954073511</v>
+        <v>0.004456464614</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00120179869088254</v>
+        <v>0.00101584943227232</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9953963261</v>
+        <v>0.9933977959</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9974590574</v>
+        <v>0.9970323079</v>
       </c>
       <c r="V4" t="n">
-        <v>0.996575581766667</v>
+        <v>0.9956409149</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9968713618</v>
+        <v>0.9960667779</v>
       </c>
       <c r="X4" t="n">
-        <v>0.00106269914608461</v>
+        <v>0.00156320752799058</v>
       </c>
       <c r="Y4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z4" t="n">
-        <v>30.15238714</v>
+        <v>24.84006178</v>
       </c>
       <c r="AA4" t="n">
-        <v>32.8541897</v>
+        <v>38.58113502</v>
       </c>
       <c r="AB4" t="n">
-        <v>31.6920814766667</v>
+        <v>28.7650732175</v>
       </c>
       <c r="AC4" t="n">
-        <v>32.06966759</v>
+        <v>25.819548035</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.38991464595574</v>
+        <v>6.56700158498214</v>
       </c>
       <c r="AE4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.3705335274</v>
+        <v>0.3303685919</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.392411648</v>
+        <v>0.5227737671</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.377826234266667</v>
+        <v>0.39855235345</v>
       </c>
       <c r="AI4" t="n">
         <v>0.3705335274</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0126313388177731</v>
+        <v>0.0849511510119237</v>
       </c>
       <c r="AK4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.1314965597</v>
+        <v>0.189112491</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.2599720975</v>
+        <v>0.2698123118</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.211285754766667</v>
+        <v>0.235363134575</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.2423886071</v>
+        <v>0.24126386775</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0696565253275073</v>
+        <v>0.033842016264571</v>
       </c>
       <c r="AQ4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.3173644943</v>
+        <v>0.3249214466</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.409772138</v>
+        <v>0.4406215037</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.3673667297</v>
+        <v>0.39502827485</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.3749635568</v>
+        <v>0.40728507455</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0466698724021933</v>
+        <v>0.0529879798561664</v>
       </c>
       <c r="AW4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.01876959493</v>
+        <v>0.01906003541</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.01983760034</v>
+        <v>0.02003512697</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.0192656479966667</v>
+        <v>0.0195128705675</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.01918974872</v>
+        <v>0.019478159945</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.000538032911722145</v>
+        <v>0.000497636607071642</v>
       </c>
     </row>
     <row r="5">
@@ -1219,158 +1215,154 @@
       <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
+      <c r="C5"/>
       <c r="D5"/>
-      <c r="E5"/>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>0.815193572</v>
+        <v>5.052593134</v>
       </c>
       <c r="I5" t="n">
-        <v>4.203798393</v>
+        <v>7.842220599</v>
       </c>
       <c r="J5" t="n">
-        <v>2.470964207375</v>
+        <v>6.1249086925</v>
       </c>
       <c r="K5" t="n">
-        <v>2.404309715</v>
+        <v>5.8024105185</v>
       </c>
       <c r="L5" t="n">
-        <v>1.19394604663665</v>
+        <v>1.22994183121831</v>
       </c>
       <c r="M5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001309661359</v>
+        <v>0.003446</v>
       </c>
       <c r="O5" t="n">
-        <v>0.005335125857</v>
+        <v>0.005382</v>
       </c>
       <c r="P5" t="n">
-        <v>0.00212377617075</v>
+        <v>0.00431</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0016925554545</v>
+        <v>0.004206</v>
       </c>
       <c r="R5" t="n">
-        <v>0.00132551139751518</v>
+        <v>0.00101051307100238</v>
       </c>
       <c r="S5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>0.9882817452</v>
+        <v>0.999297</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9980384446</v>
+        <v>0.999669</v>
       </c>
       <c r="V5" t="n">
-        <v>0.99586588035</v>
+        <v>0.99946825</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9973468341</v>
+        <v>0.9994535</v>
       </c>
       <c r="X5" t="n">
-        <v>0.00337106496902284</v>
+        <v>0.000186767904094886</v>
       </c>
       <c r="Y5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.62446752</v>
+        <v>19.335892</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.85562751</v>
+        <v>31.087536</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.6775074</v>
+        <v>22.81322525</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.973376425</v>
+        <v>20.4147365</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.20543128790371</v>
+        <v>5.54669732194858</v>
       </c>
       <c r="AE5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1659687034</v>
+        <v>0.119219</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.4661063589</v>
+        <v>0.119219</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.299872925225</v>
+        <v>0.119219</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.3119495569</v>
+        <v>0.119219</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.0992492863727578</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.1566523117</v>
+        <v>0.184374650203761</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.6073583191</v>
+        <v>0.245839797583193</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.383099318825</v>
+        <v>0.213146807856977</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.4259284651</v>
+        <v>0.211186391820477</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.19098667297236</v>
+        <v>0.0256909920315939</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.3122140718</v>
+        <v>0.273106845726622</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.6521077762</v>
+        <v>0.357464118277516</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5015952858</v>
+        <v>0.333886789161409</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.5532184764</v>
+        <v>0.352488096320749</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.138569920205882</v>
+        <v>0.0407160335641495</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0.01737498324</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0.01979390992</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0.01810705383125</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0.017965603515</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0.000798204440091263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AX5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AY5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA5"/>
+      <c r="BB5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1379,157 +1371,157 @@
       <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" t="s">
         <v>60</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>5.544923302</v>
+        <v>10.47041636</v>
       </c>
       <c r="I6" t="n">
-        <v>9.642074507</v>
+        <v>11.32359386</v>
       </c>
       <c r="J6" t="n">
-        <v>6.987582176875</v>
+        <v>11.0063306533333</v>
       </c>
       <c r="K6" t="n">
-        <v>6.6216216215</v>
+        <v>11.22498174</v>
       </c>
       <c r="L6" t="n">
-        <v>1.37393484129351</v>
+        <v>0.466727098958212</v>
       </c>
       <c r="M6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0005339983803</v>
+        <v>0.00293632711</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003228674941</v>
+        <v>0.005330963943</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0018863491219</v>
+        <v>0.004073788188</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001908244101</v>
+        <v>0.003954073511</v>
       </c>
       <c r="R6" t="n">
-        <v>0.000977260866736992</v>
+        <v>0.00120179869088254</v>
       </c>
       <c r="S6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9946007598</v>
+        <v>0.9953963261</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9984446191</v>
+        <v>0.9974590574</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9967884019625</v>
+        <v>0.996575581766667</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9968724823</v>
+        <v>0.9968713618</v>
       </c>
       <c r="X6" t="n">
-        <v>0.00113773258527102</v>
+        <v>0.00106269914608461</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.46350165</v>
+        <v>30.15238714</v>
       </c>
       <c r="AA6" t="n">
-        <v>23.9347534</v>
+        <v>32.8541897</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.30191348875</v>
+        <v>31.6920814766667</v>
       </c>
       <c r="AC6" t="n">
-        <v>18.826165425</v>
+        <v>32.06966759</v>
       </c>
       <c r="AD6" t="n">
-        <v>4.53348061769191</v>
+        <v>1.38991464595574</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.2479858244</v>
+        <v>0.3705335274</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.5227737671</v>
+        <v>0.392411648</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.3260999679625</v>
+        <v>0.377826234266667</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.3211590744</v>
+        <v>0.3705335274</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0912884110798046</v>
+        <v>0.0126313388177731</v>
       </c>
       <c r="AK6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.175311207</v>
+        <v>0.1314965597</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.5260182538</v>
+        <v>0.2599720975</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.334063928625</v>
+        <v>0.211285754766667</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.33481584205</v>
+        <v>0.2423886071</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.134903500645375</v>
+        <v>0.0696565253275073</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.2873423851</v>
+        <v>0.3173644943</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.5071941859</v>
+        <v>0.409772138</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.4496533609375</v>
+        <v>0.3673667297</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.47847502865</v>
+        <v>0.3749635568</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.0753919018361105</v>
+        <v>0.0466698724021933</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.01738543897</v>
+        <v>0.01876959493</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.01900251014</v>
+        <v>0.01983760034</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.0180380137925</v>
+        <v>0.0192656479966667</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.01804648108</v>
+        <v>0.01918974872</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.000500165966195092</v>
+        <v>0.000538032911722145</v>
       </c>
     </row>
     <row r="7">
@@ -1539,317 +1531,313 @@
       <c r="B7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" t="s">
         <v>60</v>
       </c>
-      <c r="D7"/>
-      <c r="E7"/>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>12.74287801</v>
+        <v>10.47041636</v>
       </c>
       <c r="I7" t="n">
-        <v>17.12052593</v>
+        <v>11.32359386</v>
       </c>
       <c r="J7" t="n">
-        <v>14.40491843</v>
+        <v>11.0063306533333</v>
       </c>
       <c r="K7" t="n">
-        <v>14.12235208</v>
+        <v>11.22498174</v>
       </c>
       <c r="L7" t="n">
-        <v>1.57056100395005</v>
+        <v>0.466727098958212</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0003219685402</v>
+        <v>0.003596</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003469693527</v>
+        <v>0.005272</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001465852504</v>
+        <v>0.004221</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0012609889355</v>
+        <v>0.003795</v>
       </c>
       <c r="R7" t="n">
-        <v>0.00106575563267622</v>
+        <v>0.000915615093803067</v>
       </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>0.994454202</v>
+        <v>0.998578</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9979233788</v>
+        <v>0.999416</v>
       </c>
       <c r="V7" t="n">
-        <v>0.996373180816667</v>
+        <v>0.999122333333333</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9963464759</v>
+        <v>0.999373</v>
       </c>
       <c r="X7" t="n">
-        <v>0.00114929377664597</v>
+        <v>0.000471896528206483</v>
       </c>
       <c r="Y7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.08142223</v>
+        <v>24.193768</v>
       </c>
       <c r="AA7" t="n">
-        <v>28.80020878</v>
+        <v>25.769585</v>
       </c>
       <c r="AB7" t="n">
-        <v>18.8500080116667</v>
+        <v>24.8235126666667</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.74117687</v>
+        <v>24.507185</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.7291645567444</v>
+        <v>0.834174561405665</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.2341598746</v>
+        <v>0.119219</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.4401195383</v>
+        <v>0.119219</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.31022673555</v>
+        <v>0.119219</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.2872888484</v>
+        <v>0.119219</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0758479116364196</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.1611350493</v>
+        <v>0.127579690583849</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.2957449855</v>
+        <v>0.208703288442699</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.245566779066667</v>
+        <v>0.181315708925498</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.25317291465</v>
+        <v>0.207664147749947</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0563502659426537</v>
+        <v>0.046539657323141</v>
       </c>
       <c r="AQ7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.3516049322</v>
+        <v>0.292238187846835</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.4558982752</v>
+        <v>0.330695328914383</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.4093454773</v>
+        <v>0.308102050570066</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.4157812291</v>
+        <v>0.30137263494898</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.0385660952078366</v>
+        <v>0.0200923294001295</v>
       </c>
       <c r="AW7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0.01728871789</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0.01888418906</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0.0178630130033333</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0.01780443031</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0.000601905947121228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AX7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AY7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA7"/>
+      <c r="BB7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
         <v>61</v>
       </c>
+      <c r="C8"/>
       <c r="D8"/>
-      <c r="E8"/>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
       <c r="F8" t="s">
         <v>57</v>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5405405405</v>
+        <v>0.815193572</v>
       </c>
       <c r="I8" t="n">
-        <v>4.541271001</v>
+        <v>4.203798393</v>
       </c>
       <c r="J8" t="n">
-        <v>2.05578059630455</v>
+        <v>2.470964207375</v>
       </c>
       <c r="K8" t="n">
-        <v>1.8363769175</v>
+        <v>2.404309715</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33544536595197</v>
+        <v>1.19394604663665</v>
       </c>
       <c r="M8" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001195385925</v>
+        <v>0.001309661359</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004348138114</v>
+        <v>0.005335125857</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00261370041113636</v>
+        <v>0.00212377617075</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.00278353638</v>
+        <v>0.0016925554545</v>
       </c>
       <c r="R8" t="n">
-        <v>0.000922476216918525</v>
+        <v>0.00132551139751518</v>
       </c>
       <c r="S8" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9930815651</v>
+        <v>0.9882817452</v>
       </c>
       <c r="U8" t="n">
-        <v>0.998199779</v>
+        <v>0.9980384446</v>
       </c>
       <c r="V8" t="n">
-        <v>0.996253979681818</v>
+        <v>0.99586588035</v>
       </c>
       <c r="W8" t="n">
-        <v>0.9964843762</v>
+        <v>0.9973468341</v>
       </c>
       <c r="X8" t="n">
-        <v>0.00131260074610415</v>
+        <v>0.00337106496902284</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.16027362</v>
+        <v>11.62446752</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.01797992</v>
+        <v>20.85562751</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.9845043227273</v>
+        <v>14.6775074</v>
       </c>
       <c r="AC8" t="n">
-        <v>14.723422325</v>
+        <v>13.973376425</v>
       </c>
       <c r="AD8" t="n">
-        <v>3.51539078685007</v>
+        <v>3.20543128790371</v>
       </c>
       <c r="AE8" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1971375428</v>
+        <v>0.1659687034</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.4936275692</v>
+        <v>0.4661063589</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.3359037512</v>
+        <v>0.299872925225</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.3303685919</v>
+        <v>0.3119495569</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.0772540641370686</v>
+        <v>0.0992492863727578</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.1306295284</v>
+        <v>0.1566523117</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.4701577805</v>
+        <v>0.6073583191</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.241800380222727</v>
+        <v>0.383099318825</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.21535568745</v>
+        <v>0.4259284651</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.102854445178228</v>
+        <v>0.19098667297236</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.3454573084</v>
+        <v>0.3122140718</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.6251544188</v>
+        <v>0.6521077762</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.448924720754545</v>
+        <v>0.5015952858</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.42850148495</v>
+        <v>0.5532184764</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0878010762665438</v>
+        <v>0.138569920205882</v>
       </c>
       <c r="AW8" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.01806818742</v>
+        <v>0.01737498324</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.01924918215</v>
+        <v>0.01979390992</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0185514563063636</v>
+        <v>0.01810705383125</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.01863029406</v>
+        <v>0.017965603515</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.000362917208654887</v>
+        <v>0.000798204440091263</v>
       </c>
     </row>
     <row r="9">
@@ -1857,406 +1845,406 @@
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
         <v>61</v>
       </c>
+      <c r="C9"/>
       <c r="D9"/>
-      <c r="E9"/>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
       <c r="F9" t="s">
         <v>58</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>7.902118335</v>
+        <v>0.815193572</v>
       </c>
       <c r="I9" t="n">
-        <v>9.955441928</v>
+        <v>4.203798393</v>
       </c>
       <c r="J9" t="n">
-        <v>8.9287801315</v>
+        <v>2.470964207375</v>
       </c>
       <c r="K9" t="n">
-        <v>8.9287801315</v>
+        <v>2.404309715</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45191903658063</v>
+        <v>1.19394604663665</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002125455548</v>
+        <v>0.000469</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002175306064</v>
+        <v>0.004383</v>
       </c>
       <c r="P9" t="n">
-        <v>0.002150380806</v>
+        <v>0.002115375</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.002150380806</v>
+        <v>0.0022035</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0000352496379092484</v>
+        <v>0.00121243685402581</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9925518776</v>
+        <v>0.998468</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9972664038</v>
+        <v>0.999844</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9949091407</v>
+        <v>0.999299</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9949091407</v>
+        <v>0.9994085</v>
       </c>
       <c r="X9" t="n">
-        <v>0.00333367344610165</v>
+        <v>0.000481840222480418</v>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.391873</v>
+        <v>9.14325</v>
       </c>
       <c r="AA9" t="n">
-        <v>17.38120685</v>
+        <v>16.524047</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.886539925</v>
+        <v>12.068449</v>
       </c>
       <c r="AC9" t="n">
-        <v>15.886539925</v>
+        <v>11.9999515</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.11377823656549</v>
+        <v>2.29490959756115</v>
       </c>
       <c r="AE9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.2087775122</v>
+        <v>0.052986</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.3498751773</v>
+        <v>0.119219</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.27932634475</v>
+        <v>0.10266075</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.27932634475</v>
+        <v>0.119219</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.0997711158017985</v>
+        <v>0.0306599213341177</v>
       </c>
       <c r="AK9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.3416664277</v>
+        <v>0.144583568392622</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.3554366329</v>
+        <v>0.489365311214968</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.3485515303</v>
+        <v>0.330917883917989</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.3485515303</v>
+        <v>0.381531292726169</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.00973700547525026</v>
+        <v>0.146618848102566</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.5965886003</v>
+        <v>0.290013767465744</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.7917406959</v>
+        <v>0.569361919024553</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.6941646481</v>
+        <v>0.437441107695364</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.6941646481</v>
+        <v>0.468434056371823</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.137993370161525</v>
+        <v>0.117400712679695</v>
       </c>
       <c r="AW9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0.01835714692</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0.01851888918</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>0.01843801805</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0.01843801805</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0.000114369048850438</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AX9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AY9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA9"/>
+      <c r="BB9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C10"/>
       <c r="D10"/>
-      <c r="E10"/>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
       <c r="F10" t="s">
         <v>57</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7173119065</v>
+        <v>5.544923302</v>
       </c>
       <c r="I10" t="n">
-        <v>4.018261505</v>
+        <v>9.642074507</v>
       </c>
       <c r="J10" t="n">
-        <v>2.30627766085294</v>
+        <v>6.987582176875</v>
       </c>
       <c r="K10" t="n">
-        <v>2.194302411</v>
+        <v>6.6216216215</v>
       </c>
       <c r="L10" t="n">
-        <v>0.849620183857009</v>
+        <v>1.37393484129351</v>
       </c>
       <c r="M10" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.003345</v>
+        <v>0.0005339983803</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006601</v>
+        <v>0.003228674941</v>
       </c>
       <c r="P10" t="n">
-        <v>0.00534129411764706</v>
+        <v>0.0018863491219</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.005302</v>
+        <v>0.001908244101</v>
       </c>
       <c r="R10" t="n">
-        <v>0.000866056202326521</v>
+        <v>0.000977260866736992</v>
       </c>
       <c r="S10" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="T10" t="n">
-        <v>0.997269</v>
+        <v>0.9946007598</v>
       </c>
       <c r="U10" t="n">
-        <v>0.999664</v>
+        <v>0.9984446191</v>
       </c>
       <c r="V10" t="n">
-        <v>0.999067470588235</v>
+        <v>0.9967884019625</v>
       </c>
       <c r="W10" t="n">
-        <v>0.999271</v>
+        <v>0.9968724823</v>
       </c>
       <c r="X10" t="n">
-        <v>0.000687648267434663</v>
+        <v>0.00113773258527102</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.470493</v>
+        <v>12.46350165</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.877856</v>
+        <v>23.9347534</v>
       </c>
       <c r="AB10" t="n">
-        <v>13.4485883529412</v>
+        <v>18.30191348875</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.994841</v>
+        <v>18.826165425</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.38928124980305</v>
+        <v>4.53348061769191</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.119219</v>
+        <v>0.2479858244</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.119219</v>
+        <v>0.5227737671</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.119219</v>
+        <v>0.3260999679625</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.119219</v>
+        <v>0.3211590744</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>0.0912884110798046</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.112747374019717</v>
+        <v>0.175311207</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.273638072468425</v>
+        <v>0.5260182538</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.187225494763084</v>
+        <v>0.334063928625</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.170848339610136</v>
+        <v>0.33481584205</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.049680696314677</v>
+        <v>0.134903500645375</v>
       </c>
       <c r="AQ10" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.254888059448722</v>
+        <v>0.2873423851</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.428174853391345</v>
+        <v>0.5071941859</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.333887526731688</v>
+        <v>0.4496533609375</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.33833889834854</v>
+        <v>0.47847502865</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.0512348882696614</v>
+        <v>0.0753919018361105</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AY10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="BA10"/>
-      <c r="BB10"/>
+        <v>8</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.01738543897</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.01900251014</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.0180380137925</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.01804648108</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.000500165966195092</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C11"/>
       <c r="D11"/>
-      <c r="E11"/>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
       <c r="F11" t="s">
         <v>58</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>5.052593134</v>
+        <v>5.544923302</v>
       </c>
       <c r="I11" t="n">
-        <v>7.842220599</v>
+        <v>9.642074507</v>
       </c>
       <c r="J11" t="n">
-        <v>6.1249086925</v>
+        <v>6.987582176875</v>
       </c>
       <c r="K11" t="n">
-        <v>5.8024105185</v>
+        <v>6.6216216215</v>
       </c>
       <c r="L11" t="n">
-        <v>1.22994183121831</v>
+        <v>1.37393484129351</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.003446</v>
+        <v>0.000792</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005382</v>
+        <v>0.003304</v>
       </c>
       <c r="P11" t="n">
-        <v>0.00431</v>
+        <v>0.001731125</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004206</v>
+        <v>0.0016535</v>
       </c>
       <c r="R11" t="n">
-        <v>0.00101051307100238</v>
+        <v>0.000858832669133766</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T11" t="n">
-        <v>0.999297</v>
+        <v>0.996478</v>
       </c>
       <c r="U11" t="n">
-        <v>0.999669</v>
+        <v>0.999589</v>
       </c>
       <c r="V11" t="n">
-        <v>0.99946825</v>
+        <v>0.998651875</v>
       </c>
       <c r="W11" t="n">
-        <v>0.9994535</v>
+        <v>0.9986755</v>
       </c>
       <c r="X11" t="n">
-        <v>0.000186767904094886</v>
+        <v>0.00100182211673103</v>
       </c>
       <c r="Y11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.335892</v>
+        <v>10.30257</v>
       </c>
       <c r="AA11" t="n">
-        <v>31.087536</v>
+        <v>19.062174</v>
       </c>
       <c r="AB11" t="n">
-        <v>22.81322525</v>
+        <v>14.563375</v>
       </c>
       <c r="AC11" t="n">
-        <v>20.4147365</v>
+        <v>15.0804505</v>
       </c>
       <c r="AD11" t="n">
-        <v>5.54669732194858</v>
+        <v>3.38338991866112</v>
       </c>
       <c r="AE11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>0.119219</v>
@@ -2274,40 +2262,40 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.184374650203761</v>
+        <v>0.163892659643728</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.245839797583193</v>
+        <v>0.465851816441064</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.213146807856977</v>
+        <v>0.299176430670136</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.211186391820477</v>
+        <v>0.323705840107652</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.0256909920315939</v>
+        <v>0.115643959005468</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.273106845726622</v>
+        <v>0.222601637258489</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.357464118277516</v>
+        <v>0.50326198685741</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.333886789161409</v>
+        <v>0.395176515672101</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.352488096320749</v>
+        <v>0.42866996548017</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0407160335641498</v>
+        <v>0.0870094198569361</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
@@ -2329,246 +2317,250 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C12"/>
       <c r="D12"/>
-      <c r="E12"/>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>10.47041636</v>
+        <v>12.74287801</v>
       </c>
       <c r="I12" t="n">
-        <v>11.32359386</v>
+        <v>17.12052593</v>
       </c>
       <c r="J12" t="n">
-        <v>11.0063306533333</v>
+        <v>14.40491843</v>
       </c>
       <c r="K12" t="n">
-        <v>11.22498174</v>
+        <v>14.12235208</v>
       </c>
       <c r="L12" t="n">
-        <v>0.466727098958212</v>
+        <v>1.57056100395005</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.003596</v>
+        <v>0.0003219685402</v>
       </c>
       <c r="O12" t="n">
-        <v>0.005272</v>
+        <v>0.003469693527</v>
       </c>
       <c r="P12" t="n">
-        <v>0.004221</v>
+        <v>0.001465852504</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.003795</v>
+        <v>0.0012609889355</v>
       </c>
       <c r="R12" t="n">
-        <v>0.000915615093803067</v>
+        <v>0.00106575563267622</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T12" t="n">
-        <v>0.998578</v>
+        <v>0.994454202</v>
       </c>
       <c r="U12" t="n">
-        <v>0.999416</v>
+        <v>0.9979233788</v>
       </c>
       <c r="V12" t="n">
-        <v>0.999122333333333</v>
+        <v>0.996373180816667</v>
       </c>
       <c r="W12" t="n">
-        <v>0.999373</v>
+        <v>0.9963464759</v>
       </c>
       <c r="X12" t="n">
-        <v>0.000471896528206483</v>
+        <v>0.00114929377664597</v>
       </c>
       <c r="Y12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.193768</v>
+        <v>13.08142223</v>
       </c>
       <c r="AA12" t="n">
-        <v>25.769585</v>
+        <v>28.80020878</v>
       </c>
       <c r="AB12" t="n">
-        <v>24.8235126666667</v>
+        <v>18.8500080116667</v>
       </c>
       <c r="AC12" t="n">
-        <v>24.507185</v>
+        <v>15.74117687</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.834174561405665</v>
+        <v>6.7291645567444</v>
       </c>
       <c r="AE12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.119219</v>
+        <v>0.2341598746</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.119219</v>
+        <v>0.4401195383</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.119219</v>
+        <v>0.31022673555</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.119219</v>
+        <v>0.2872888484</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>0.0758479116364196</v>
       </c>
       <c r="AK12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.127579690583849</v>
+        <v>0.1611350493</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.208703288442699</v>
+        <v>0.2957449855</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.181315708925499</v>
+        <v>0.245566779066667</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.207664147749947</v>
+        <v>0.25317291465</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.0465396573231407</v>
+        <v>0.0563502659426537</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.292238187846835</v>
+        <v>0.3516049322</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.330695328914383</v>
+        <v>0.4558982752</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.308102050570066</v>
+        <v>0.4093454773</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.30137263494898</v>
+        <v>0.4157812291</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0200923294001295</v>
+        <v>0.0385660952078366</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AY12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="BA12"/>
-      <c r="BB12"/>
+        <v>6</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.01728871789</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.01888418906</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.0178630130033333</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.01780443031</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.000601905947121228</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="s">
         <v>60</v>
       </c>
-      <c r="D13"/>
-      <c r="E13"/>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>0.815193572</v>
+        <v>12.74287801</v>
       </c>
       <c r="I13" t="n">
-        <v>4.203798393</v>
+        <v>17.12052593</v>
       </c>
       <c r="J13" t="n">
-        <v>2.470964207375</v>
+        <v>14.40491843</v>
       </c>
       <c r="K13" t="n">
-        <v>2.404309715</v>
+        <v>14.12235208</v>
       </c>
       <c r="L13" t="n">
-        <v>1.19394604663665</v>
+        <v>1.57056100395005</v>
       </c>
       <c r="M13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.000469</v>
+        <v>0.000234</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004383</v>
+        <v>0.003615</v>
       </c>
       <c r="P13" t="n">
-        <v>0.002115375</v>
+        <v>0.00159283333333333</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0022035</v>
+        <v>0.001581</v>
       </c>
       <c r="R13" t="n">
-        <v>0.00121243685402581</v>
+        <v>0.0011527421943638</v>
       </c>
       <c r="S13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T13" t="n">
-        <v>0.998468</v>
+        <v>0.997205</v>
       </c>
       <c r="U13" t="n">
-        <v>0.999844</v>
+        <v>0.999769</v>
       </c>
       <c r="V13" t="n">
-        <v>0.999299</v>
+        <v>0.9990125</v>
       </c>
       <c r="W13" t="n">
-        <v>0.9994085</v>
+        <v>0.9992825</v>
       </c>
       <c r="X13" t="n">
-        <v>0.000481840222480418</v>
+        <v>0.000915866092832356</v>
       </c>
       <c r="Y13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.14325</v>
+        <v>10.735494</v>
       </c>
       <c r="AA13" t="n">
-        <v>16.524047</v>
+        <v>22.447105</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.068449</v>
+        <v>14.8563086666667</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.9999515</v>
+        <v>12.4171325</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.29490959756115</v>
+        <v>4.97220019058427</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
         <v>0.052986</v>
@@ -2577,49 +2569,49 @@
         <v>0.119219</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.10266075</v>
+        <v>0.108180166666667</v>
       </c>
       <c r="AI13" t="n">
         <v>0.119219</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0306599213341177</v>
+        <v>0.027039509022293</v>
       </c>
       <c r="AK13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.144583568392622</v>
+        <v>0.154783683056619</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.489365311214968</v>
+        <v>0.258319527092557</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.330917883917989</v>
+        <v>0.211808314037098</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.381531292726169</v>
+        <v>0.213883608987739</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.146618848102566</v>
+        <v>0.0423730375862734</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.290013767465744</v>
+        <v>0.281446626634076</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.569361919024553</v>
+        <v>0.42043694684016</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.437441107695364</v>
+        <v>0.379704186389903</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.468434056371822</v>
+        <v>0.407215553616221</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.117400712679695</v>
+        <v>0.0564561953400418</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
@@ -2643,154 +2635,158 @@
       <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
+      <c r="C14"/>
       <c r="D14"/>
-      <c r="E14"/>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H14" t="n">
-        <v>5.544923302</v>
+        <v>0.5405405405</v>
       </c>
       <c r="I14" t="n">
-        <v>9.642074507</v>
+        <v>4.541271001</v>
       </c>
       <c r="J14" t="n">
-        <v>6.987582176875</v>
+        <v>2.05578059630455</v>
       </c>
       <c r="K14" t="n">
-        <v>6.6216216215</v>
+        <v>1.8363769175</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37393484129351</v>
+        <v>1.33544536595197</v>
       </c>
       <c r="M14" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N14" t="n">
-        <v>0.000792</v>
+        <v>0.001195385925</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003304</v>
+        <v>0.004348138114</v>
       </c>
       <c r="P14" t="n">
-        <v>0.001731125</v>
+        <v>0.00261370041113636</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0016535</v>
+        <v>0.00278353638</v>
       </c>
       <c r="R14" t="n">
-        <v>0.000858832669133766</v>
+        <v>0.000922476216918525</v>
       </c>
       <c r="S14" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="T14" t="n">
-        <v>0.996478</v>
+        <v>0.9930815651</v>
       </c>
       <c r="U14" t="n">
-        <v>0.999589</v>
+        <v>0.998199779</v>
       </c>
       <c r="V14" t="n">
-        <v>0.998651875</v>
+        <v>0.996253979681818</v>
       </c>
       <c r="W14" t="n">
-        <v>0.9986755</v>
+        <v>0.9964843762</v>
       </c>
       <c r="X14" t="n">
-        <v>0.00100182211673103</v>
+        <v>0.00131260074610415</v>
       </c>
       <c r="Y14" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.30257</v>
+        <v>10.16027362</v>
       </c>
       <c r="AA14" t="n">
-        <v>19.062174</v>
+        <v>24.01797992</v>
       </c>
       <c r="AB14" t="n">
-        <v>14.563375</v>
+        <v>14.9845043227273</v>
       </c>
       <c r="AC14" t="n">
-        <v>15.0804505</v>
+        <v>14.723422325</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.38338991866112</v>
+        <v>3.51539078685007</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.119219</v>
+        <v>0.1971375428</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.119219</v>
+        <v>0.4936275692</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.119219</v>
+        <v>0.3359037512</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.119219</v>
+        <v>0.3303685919</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>0.0772540641370686</v>
       </c>
       <c r="AK14" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.163892659643728</v>
+        <v>0.1306295284</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.465851816441064</v>
+        <v>0.4701577805</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.299176430670136</v>
+        <v>0.241800380222727</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.323705840107652</v>
+        <v>0.21535568745</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.115643959005468</v>
+        <v>0.102854445178228</v>
       </c>
       <c r="AQ14" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.222601637258489</v>
+        <v>0.3454573084</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.50326198685741</v>
+        <v>0.6251544188</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.395176515672101</v>
+        <v>0.448924720754545</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.42866996548017</v>
+        <v>0.42850148495</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.087009419856936</v>
+        <v>0.0878010762665438</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AY14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="BA14"/>
-      <c r="BB14"/>
+        <v>22</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0.01806818742</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.01924918215</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.0185514563063636</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.01863029406</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.000362917208654887</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2799,88 +2795,88 @@
       <c r="B15" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
+      <c r="C15"/>
       <c r="D15"/>
-      <c r="E15"/>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H15" t="n">
-        <v>12.74287801</v>
+        <v>0.5405405405</v>
       </c>
       <c r="I15" t="n">
-        <v>17.12052593</v>
+        <v>4.541271001</v>
       </c>
       <c r="J15" t="n">
-        <v>14.40491843</v>
+        <v>2.05578059630455</v>
       </c>
       <c r="K15" t="n">
-        <v>14.12235208</v>
+        <v>1.8363769175</v>
       </c>
       <c r="L15" t="n">
-        <v>1.57056100395005</v>
+        <v>1.33544536595197</v>
       </c>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="N15" t="n">
-        <v>0.000234</v>
+        <v>0.001158</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003615</v>
+        <v>0.004295</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00159283333333333</v>
+        <v>0.0023175</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.001581</v>
+        <v>0.0022615</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0011527421943638</v>
+        <v>0.000785431137292488</v>
       </c>
       <c r="S15" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="T15" t="n">
-        <v>0.997205</v>
+        <v>0.997572</v>
       </c>
       <c r="U15" t="n">
-        <v>0.999769</v>
+        <v>0.999691</v>
       </c>
       <c r="V15" t="n">
-        <v>0.9990125</v>
+        <v>0.999109681818182</v>
       </c>
       <c r="W15" t="n">
-        <v>0.9992825</v>
+        <v>0.9992395</v>
       </c>
       <c r="X15" t="n">
-        <v>0.000915866092832356</v>
+        <v>0.000503066443246163</v>
       </c>
       <c r="Y15" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="n">
-        <v>10.735494</v>
+        <v>8.040399</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.447105</v>
+        <v>18.398553</v>
       </c>
       <c r="AB15" t="n">
-        <v>14.8563086666667</v>
+        <v>12.2871275454545</v>
       </c>
       <c r="AC15" t="n">
-        <v>12.4171325</v>
+        <v>12.243461</v>
       </c>
       <c r="AD15" t="n">
-        <v>4.97220019058427</v>
+        <v>2.60181608619722</v>
       </c>
       <c r="AE15" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AF15" t="n">
         <v>0.052986</v>
@@ -2889,49 +2885,49 @@
         <v>0.119219</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.108180166666667</v>
+        <v>0.116208409090909</v>
       </c>
       <c r="AI15" t="n">
         <v>0.119219</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.027039509022293</v>
+        <v>0.0141209230463811</v>
       </c>
       <c r="AK15" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.154783683056619</v>
+        <v>0.117032492238906</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.258319527092557</v>
+        <v>0.438161913501645</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.211808314037098</v>
+        <v>0.213730924437049</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.213883608987739</v>
+        <v>0.181564615752637</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.0423730375862736</v>
+        <v>0.0891664954917549</v>
       </c>
       <c r="AQ15" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.281446626634076</v>
+        <v>0.281271092464203</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.42043694684016</v>
+        <v>0.608452562136942</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.379704186389903</v>
+        <v>0.398510564430377</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.407215553616221</v>
+        <v>0.36605003570595</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.0564561953400418</v>
+        <v>0.0865508201971497</v>
       </c>
       <c r="AW15" t="n">
         <v>0</v>
@@ -2955,154 +2951,158 @@
       <c r="B16" t="s">
         <v>62</v>
       </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
+      <c r="C16"/>
       <c r="D16"/>
-      <c r="E16"/>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
       <c r="F16" t="s">
         <v>57</v>
       </c>
       <c r="G16" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5405405405</v>
+        <v>7.902118335</v>
       </c>
       <c r="I16" t="n">
-        <v>4.541271001</v>
+        <v>9.955441928</v>
       </c>
       <c r="J16" t="n">
-        <v>2.05578059630455</v>
+        <v>8.9287801315</v>
       </c>
       <c r="K16" t="n">
-        <v>1.8363769175</v>
+        <v>8.9287801315</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33544536595197</v>
+        <v>1.45191903658063</v>
       </c>
       <c r="M16" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001158</v>
+        <v>0.002125455548</v>
       </c>
       <c r="O16" t="n">
-        <v>0.004295</v>
+        <v>0.002175306064</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0023175</v>
+        <v>0.002150380806</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0022615</v>
+        <v>0.002150380806</v>
       </c>
       <c r="R16" t="n">
-        <v>0.000785431137292488</v>
+        <v>0.0000352496379092484</v>
       </c>
       <c r="S16" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>0.997572</v>
+        <v>0.9925518776</v>
       </c>
       <c r="U16" t="n">
-        <v>0.999691</v>
+        <v>0.9972664038</v>
       </c>
       <c r="V16" t="n">
-        <v>0.999109681818182</v>
+        <v>0.9949091407</v>
       </c>
       <c r="W16" t="n">
-        <v>0.9992395</v>
+        <v>0.9949091407</v>
       </c>
       <c r="X16" t="n">
-        <v>0.000503066443246163</v>
+        <v>0.00333367344610165</v>
       </c>
       <c r="Y16" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.040399</v>
+        <v>14.391873</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.398553</v>
+        <v>17.38120685</v>
       </c>
       <c r="AB16" t="n">
-        <v>12.2871275454545</v>
+        <v>15.886539925</v>
       </c>
       <c r="AC16" t="n">
-        <v>12.243461</v>
+        <v>15.886539925</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.60181608619722</v>
+        <v>2.11377823656549</v>
       </c>
       <c r="AE16" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.052986</v>
+        <v>0.2087775122</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.119219</v>
+        <v>0.3498751773</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.116208409090909</v>
+        <v>0.27932634475</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.119219</v>
+        <v>0.27932634475</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.0141209230463811</v>
+        <v>0.0997711158017985</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.117032492238906</v>
+        <v>0.3416664277</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.438161913501645</v>
+        <v>0.3554366329</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.213730924437049</v>
+        <v>0.3485515303</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.181564615752637</v>
+        <v>0.3485515303</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.0891664954917549</v>
+        <v>0.00973700547525026</v>
       </c>
       <c r="AQ16" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.281271092464203</v>
+        <v>0.5965886003</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.608452562136942</v>
+        <v>0.7917406959</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.398510564430377</v>
+        <v>0.6941646481</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.36605003570595</v>
+        <v>0.6941646481</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.0865508201971499</v>
+        <v>0.137993370161525</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AY16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="BA16"/>
-      <c r="BB16"/>
+        <v>2</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0.01835714692</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.01851888918</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.01843801805</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.01843801805</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.000114369048850438</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3111,11 +3111,11 @@
       <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
+      <c r="C17"/>
       <c r="D17"/>
-      <c r="E17"/>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
       <c r="F17" t="s">
         <v>58</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>0.294566275540776</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.0205517891439127</v>
+        <v>0.0205517891439124</v>
       </c>
       <c r="AQ17" t="n">
         <v>2</v>
@@ -3237,10 +3237,10 @@
         <v>0.815481286081362</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.661026804013842</v>
+        <v>0.661026804013843</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.661026804013842</v>
+        <v>0.661026804013843</v>
       </c>
       <c r="AV17" t="n">
         <v>0.218431623309198</v>
@@ -3265,161 +3265,159 @@
         <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C18"/>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
+      <c r="D18"/>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
         <v>57</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6123027442</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.00077514</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.51528298393333</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9327710676</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29641436118141</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N18" t="n">
-        <v>0.001807816103</v>
+        <v>0.0003988616117</v>
       </c>
       <c r="O18" t="n">
-        <v>0.005482672202</v>
+        <v>0.006248850204</v>
       </c>
       <c r="P18" t="n">
-        <v>0.00421568357733333</v>
+        <v>0.00250917018887</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.005356562427</v>
+        <v>0.00252730424</v>
       </c>
       <c r="R18" t="n">
-        <v>0.00208622751618847</v>
+        <v>0.00159406231681315</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9941755437</v>
+        <v>0.9973668344</v>
       </c>
       <c r="U18" t="n">
-        <v>0.9989563198</v>
+        <v>0.9994838334</v>
       </c>
       <c r="V18" t="n">
-        <v>0.995992376666667</v>
+        <v>0.99883944006</v>
       </c>
       <c r="W18" t="n">
-        <v>0.9948452665</v>
+        <v>0.9988656683</v>
       </c>
       <c r="X18" t="n">
-        <v>0.00258860026470584</v>
+        <v>0.000599207912616365</v>
       </c>
       <c r="Y18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.888780751</v>
+        <v>1.903044494</v>
       </c>
       <c r="AA18" t="n">
-        <v>45.01255794</v>
+        <v>12.22969371</v>
       </c>
       <c r="AB18" t="n">
-        <v>22.7956479636667</v>
+        <v>6.199624012</v>
       </c>
       <c r="AC18" t="n">
-        <v>14.4856052</v>
+        <v>4.937573921</v>
       </c>
       <c r="AD18" t="n">
-        <v>19.4428502964613</v>
+        <v>4.12517716814893</v>
       </c>
       <c r="AE18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.08340500545</v>
+        <v>0.1909999738</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.1004648173</v>
+        <v>12.28573282</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.09477821335</v>
+        <v>4.16981865187</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.1004648173</v>
+        <v>3.047394478</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.00984948696392186</v>
+        <v>4.60240966981233</v>
       </c>
       <c r="AK18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.1510845649</v>
+        <v>0.2271429298</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.407488469</v>
+        <v>1.58581125</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.658240708</v>
+        <v>0.67674806022</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.4161490901</v>
+        <v>0.5310569821</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.66226426458968</v>
+        <v>0.474265761041517</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.2939818514</v>
+        <v>0.8028658428</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.632780996</v>
+        <v>2.586812072</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.22662344883333</v>
+        <v>1.48264369795</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.7531074991</v>
+        <v>1.4286003725</v>
       </c>
       <c r="AV18" t="n">
-        <v>1.23921683965492</v>
+        <v>0.667989888435215</v>
       </c>
       <c r="AW18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.01777009452</v>
+        <v>0.01715131292</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.01924373071</v>
+        <v>0.020194359</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.0183540275833333</v>
+        <v>0.0182728539</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.01804825752</v>
+        <v>0.01822668166</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.000782957472563218</v>
+        <v>0.000878257674153491</v>
       </c>
     </row>
     <row r="19">
@@ -3427,323 +3425,315 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C19"/>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
+      <c r="D19"/>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2394835485</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>4.866895738</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.971779698375</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.3903697535</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2.10587103778341</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N19" t="n">
-        <v>0.002003087339</v>
+        <v>0.000174</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004004750868</v>
+        <v>0.00612</v>
       </c>
       <c r="P19" t="n">
-        <v>0.002851159634</v>
+        <v>0.0021757</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0026984001645</v>
+        <v>0.0021765</v>
       </c>
       <c r="R19" t="n">
-        <v>0.00083636224816724</v>
+        <v>0.00174880461077465</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9934198948</v>
+        <v>0.998483</v>
       </c>
       <c r="U19" t="n">
-        <v>0.9991144199</v>
+        <v>0.999932</v>
       </c>
       <c r="V19" t="n">
-        <v>0.9973466185</v>
+        <v>0.9995729</v>
       </c>
       <c r="W19" t="n">
-        <v>0.99842607965</v>
+        <v>0.9997555</v>
       </c>
       <c r="X19" t="n">
-        <v>0.00269480417669345</v>
+        <v>0.00045404856568434</v>
       </c>
       <c r="Y19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.445318468</v>
+        <v>1.688368</v>
       </c>
       <c r="AA19" t="n">
-        <v>49.1789018</v>
+        <v>10.236008</v>
       </c>
       <c r="AB19" t="n">
-        <v>29.909897767</v>
+        <v>5.4419947</v>
       </c>
       <c r="AC19" t="n">
-        <v>34.0076854</v>
+        <v>4.3734195</v>
       </c>
       <c r="AD19" t="n">
-        <v>21.5713496215021</v>
+        <v>3.48403398487469</v>
       </c>
       <c r="AE19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.07838834353</v>
+        <v>0.074884</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.2250309019</v>
+        <v>4.027122</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.1260872200075</v>
+        <v>1.1598776</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.1004648173</v>
+        <v>0.748845</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.066778364871343</v>
+        <v>1.3223239117879</v>
       </c>
       <c r="AK19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.1753363325</v>
+        <v>0.237940874487442</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.7292764348</v>
+        <v>1.60703342609644</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.406228249725</v>
+        <v>0.592444864796848</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.3601501158</v>
+        <v>0.440267406285135</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.259898151969492</v>
+        <v>0.474863226585242</v>
       </c>
       <c r="AQ19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.3175200085</v>
+        <v>0.694714417131445</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.478204278</v>
+        <v>2.89811164415487</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.90357104865</v>
+        <v>1.41067904070321</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.90927995405</v>
+        <v>1.28764856660557</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.618889457066963</v>
+        <v>0.694239614291059</v>
       </c>
       <c r="AW19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0.01660217518</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0.01869619765</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0.0179062071175</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0.01816322782</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0.000938902161312765</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AX19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AY19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA19"/>
+      <c r="BB19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C20"/>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
+      <c r="D20"/>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
         <v>57</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2889421075</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.101011153</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.866861030125</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>3.53874543</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.77674843592688</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N20" t="n">
-        <v>0.001557564455</v>
+        <v>0.001314585174</v>
       </c>
       <c r="O20" t="n">
-        <v>0.007075581839</v>
+        <v>0.008242304939</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0039216402375</v>
+        <v>0.0030219976132</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.003526707328</v>
+        <v>0.0020898700445</v>
       </c>
       <c r="R20" t="n">
-        <v>0.00259226232461313</v>
+        <v>0.00221286638474041</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T20" t="n">
-        <v>0.9233653816</v>
+        <v>0.9973720806</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9981923748</v>
+        <v>0.9994226963</v>
       </c>
       <c r="V20" t="n">
-        <v>0.97551618815</v>
+        <v>0.99881821486</v>
       </c>
       <c r="W20" t="n">
-        <v>0.9902534981</v>
+        <v>0.99896791115</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0354806249349532</v>
+        <v>0.000613493770803941</v>
       </c>
       <c r="Y20" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.6949705</v>
+        <v>2.295127417</v>
       </c>
       <c r="AA20" t="n">
-        <v>55.58561369</v>
+        <v>6.721419692</v>
       </c>
       <c r="AB20" t="n">
-        <v>30.559207425</v>
+        <v>4.0842945839</v>
       </c>
       <c r="AC20" t="n">
-        <v>32.478122755</v>
+        <v>3.694122694</v>
       </c>
       <c r="AD20" t="n">
-        <v>28.2912120795614</v>
+        <v>1.49775384422186</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.08340500545</v>
+        <v>0.3162715712</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.9972802751</v>
+        <v>4.192714753</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.3204037287875</v>
+        <v>0.99220253733</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.1004648173</v>
+        <v>0.5616815931</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.451322686993152</v>
+        <v>1.16729261570641</v>
       </c>
       <c r="AK20" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.1004931439</v>
+        <v>0.266925965</v>
       </c>
       <c r="AM20" t="n">
-        <v>10.32469331</v>
+        <v>0.601763689</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.8761120663</v>
+        <v>0.47289111377</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.53963090565</v>
+        <v>0.51360809445</v>
       </c>
       <c r="AP20" t="n">
-        <v>4.98238226572338</v>
+        <v>0.108725113835099</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.1951037382</v>
+        <v>0.6986570444</v>
       </c>
       <c r="AS20" t="n">
-        <v>36.41591664</v>
+        <v>2.070839882</v>
       </c>
       <c r="AT20" t="n">
-        <v>10.658599809125</v>
+        <v>1.11498339794</v>
       </c>
       <c r="AU20" t="n">
-        <v>3.01168942915</v>
+        <v>1.0471113315</v>
       </c>
       <c r="AV20" t="n">
-        <v>17.3721702577839</v>
+        <v>0.369708985911468</v>
       </c>
       <c r="AW20" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.01649338863</v>
+        <v>0.01613178951</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.01795356794</v>
+        <v>0.01876294872</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.0170521764775</v>
+        <v>0.017747698141</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.01688087467</v>
+        <v>0.017752487855</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.000637577056355895</v>
+        <v>0.000712998570275664</v>
       </c>
     </row>
     <row r="21">
@@ -3751,323 +3741,315 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C21"/>
-      <c r="D21" t="s">
-        <v>67</v>
-      </c>
+      <c r="D21"/>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2736128465</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>4.661541487</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.737068466625</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>3.0065597665</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>2.16436934525046</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0003305038118</v>
+        <v>0.000718</v>
       </c>
       <c r="O21" t="n">
-        <v>0.006599490184</v>
+        <v>0.00502</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0039659883497</v>
+        <v>0.0024896</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0044669797015</v>
+        <v>0.002462</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0028839563689639</v>
+        <v>0.00139791671982116</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9097145607</v>
+        <v>0.999305</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9988839764</v>
+        <v>0.999944</v>
       </c>
       <c r="V21" t="n">
-        <v>0.975850219425</v>
+        <v>0.9997934</v>
       </c>
       <c r="W21" t="n">
-        <v>0.9974011703</v>
+        <v>0.9998725</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0441035891856082</v>
+        <v>0.000222275704675275</v>
       </c>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>4.197067473</v>
+        <v>2.148054</v>
       </c>
       <c r="AA21" t="n">
-        <v>52.04521745</v>
+        <v>5.832863</v>
       </c>
       <c r="AB21" t="n">
-        <v>22.60779744275</v>
+        <v>3.5722386</v>
       </c>
       <c r="AC21" t="n">
-        <v>17.094452424</v>
+        <v>3.221348</v>
       </c>
       <c r="AD21" t="n">
-        <v>22.8685932726795</v>
+        <v>1.25358845121437</v>
       </c>
       <c r="AE21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.07838834353</v>
+        <v>0.075018</v>
       </c>
       <c r="AG21" t="n">
-        <v>3.04613068</v>
+        <v>0.533464</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.8501414256075</v>
+        <v>0.215886</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.13802333945</v>
+        <v>0.170875</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.46458381432416</v>
+        <v>0.134257316396538</v>
       </c>
       <c r="AK21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.160685842</v>
+        <v>0.272495727822723</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.640511661</v>
+        <v>0.555264307410258</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.072835025425</v>
+        <v>0.427818750138767</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.24507129935</v>
+        <v>0.436718415225659</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.56337421790091</v>
+        <v>0.103203040569366</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.2179132886</v>
+        <v>0.604045639672665</v>
       </c>
       <c r="AS21" t="n">
-        <v>10.21086867</v>
+        <v>1.46471802196887</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.33805785855</v>
+        <v>0.937528692966788</v>
       </c>
       <c r="AU21" t="n">
-        <v>1.4617247378</v>
+        <v>0.912512734531931</v>
       </c>
       <c r="AV21" t="n">
-        <v>4.67001566513468</v>
+        <v>0.233531789667184</v>
       </c>
       <c r="AW21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0.01595719018</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0.01888923869</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0.01732885529</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0.017234496145</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0.00125497658850918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AX21" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AY21" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ21" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA21"/>
+      <c r="BB21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C22"/>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
+      <c r="D22"/>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
         <v>57</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>2.646177519</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>4.923874312</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.97121858975</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>4.157411264</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.988439524190275</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N22" t="n">
-        <v>0.001342898516</v>
+        <v>0.001145127177</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005991581983</v>
+        <v>0.007925134399</v>
       </c>
       <c r="P22" t="n">
-        <v>0.00356916864575</v>
+        <v>0.0039495032762</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.003471097042</v>
+        <v>0.003948190654</v>
       </c>
       <c r="R22" t="n">
-        <v>0.00218887888416554</v>
+        <v>0.00240759816350314</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9935653584</v>
+        <v>0.9968872433</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9988323968</v>
+        <v>0.9995526362</v>
       </c>
       <c r="V22" t="n">
-        <v>0.997009441725</v>
+        <v>0.9986158732</v>
       </c>
       <c r="W22" t="n">
-        <v>0.99782000585</v>
+        <v>0.998792269</v>
       </c>
       <c r="X22" t="n">
-        <v>0.00240439309929278</v>
+        <v>0.000821692328304585</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>29.63050783</v>
+        <v>0.7939433263</v>
       </c>
       <c r="AA22" t="n">
-        <v>44.85846689</v>
+        <v>7.198562961</v>
       </c>
       <c r="AB22" t="n">
-        <v>36.36487685</v>
+        <v>3.04820167332</v>
       </c>
       <c r="AC22" t="n">
-        <v>35.48526634</v>
+        <v>2.8357668475</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.78599069455892</v>
+        <v>2.06985691619703</v>
       </c>
       <c r="AE22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.1004648173</v>
+        <v>0.1155532132</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.3265020617</v>
+        <v>44.73203402</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.17311315575</v>
+        <v>5.50726497194</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.132742872</v>
+        <v>0.327456566</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.106691459824779</v>
+        <v>13.9383778788801</v>
       </c>
       <c r="AK22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.09025540084</v>
+        <v>0.1980738304</v>
       </c>
       <c r="AM22" t="n">
-        <v>1.729337224</v>
+        <v>1.167792107</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.81853750061</v>
+        <v>0.48837583702</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.7272786888</v>
+        <v>0.4323807224</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.780064136384275</v>
+        <v>0.304126738741303</v>
       </c>
       <c r="AQ22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.2586428146</v>
+        <v>0.5600416498</v>
       </c>
       <c r="AS22" t="n">
-        <v>5.076058089</v>
+        <v>1.877344641</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.8595322501</v>
+        <v>1.01111874502</v>
       </c>
       <c r="AU22" t="n">
-        <v>1.0517140484</v>
+        <v>1.00111610925</v>
       </c>
       <c r="AV22" t="n">
-        <v>2.24785217127257</v>
+        <v>0.421422502462599</v>
       </c>
       <c r="AW22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.01708514642</v>
+        <v>0.01685220944</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.01764294591</v>
+        <v>0.02001019556</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.0173270408825</v>
+        <v>0.018282654112</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.0172900356</v>
+        <v>0.01802119204</v>
       </c>
       <c r="BB22" t="n">
-        <v>0.000255857898743912</v>
+        <v>0.0010767678508609</v>
       </c>
     </row>
     <row r="23">
@@ -4075,323 +4057,315 @@
         <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C23"/>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
+      <c r="D23"/>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3271206442</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.891769633</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.56107119705</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2.5126972555</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.9704067798324</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0002049663924</v>
+        <v>0.000857</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006006712705</v>
+        <v>0.008325</v>
       </c>
       <c r="P23" t="n">
-        <v>0.00304728943185</v>
+        <v>0.0043093</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.002988739315</v>
+        <v>0.004032</v>
       </c>
       <c r="R23" t="n">
-        <v>0.00255474362105596</v>
+        <v>0.00261087597262766</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T23" t="n">
-        <v>0.987344213</v>
+        <v>0.984352</v>
       </c>
       <c r="U23" t="n">
-        <v>0.9985162009</v>
+        <v>0.999754</v>
       </c>
       <c r="V23" t="n">
-        <v>0.99477804315</v>
+        <v>0.9978296</v>
       </c>
       <c r="W23" t="n">
-        <v>0.99662587935</v>
+        <v>0.999295</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0052561963832895</v>
+        <v>0.00474590080900232</v>
       </c>
       <c r="Y23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>5.671158448</v>
+        <v>0.835239</v>
       </c>
       <c r="AA23" t="n">
-        <v>52.35611571</v>
+        <v>5.497821</v>
       </c>
       <c r="AB23" t="n">
-        <v>28.93355824175</v>
+        <v>2.622791</v>
       </c>
       <c r="AC23" t="n">
-        <v>28.8534794045</v>
+        <v>2.5956225</v>
       </c>
       <c r="AD23" t="n">
-        <v>24.7612557834655</v>
+        <v>1.56953320999731</v>
       </c>
       <c r="AE23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.1004648173</v>
+        <v>0.033282</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.899664123</v>
+        <v>108.133207</v>
       </c>
       <c r="AH23" t="n">
-        <v>3.0500100059</v>
+        <v>12.7237072</v>
       </c>
       <c r="AI23" t="n">
-        <v>1.09995554165</v>
+        <v>0.33282</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4.66265184155628</v>
+        <v>33.689795720698</v>
       </c>
       <c r="AK23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.145071985</v>
+        <v>0.167418682001339</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.8618896844</v>
+        <v>0.711564006328185</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.4801019824</v>
+        <v>0.411541440486759</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.4567231301</v>
+        <v>0.395243008468327</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.384057841287175</v>
+        <v>0.160515120523653</v>
       </c>
       <c r="AQ23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.2414260519</v>
+        <v>0.472458315278303</v>
       </c>
       <c r="AS23" t="n">
-        <v>3.567648922</v>
+        <v>1.18065825708156</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.41844556955</v>
+        <v>0.835051664250881</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.93235365215</v>
+        <v>0.813590275692539</v>
       </c>
       <c r="AV23" t="n">
-        <v>1.56491684526697</v>
+        <v>0.25381426945064</v>
       </c>
       <c r="AW23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0.01698677161</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0.02010935307</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0.01852792121</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>0.01850778008</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>0.00145825624227347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AX23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AY23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA23"/>
+      <c r="BB23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C24"/>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
+      <c r="D24"/>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
         <v>57</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>1.766335786</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.92280994</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.844572863</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1.844572863</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.110643935373828</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N24" t="n">
-        <v>0.002529152347</v>
+        <v>0.0003355399204</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002819223341</v>
+        <v>0.007887921169</v>
       </c>
       <c r="P24" t="n">
-        <v>0.002674187844</v>
+        <v>0.00406797889164</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.002674187844</v>
+        <v>0.004115162413</v>
       </c>
       <c r="R24" t="n">
-        <v>0.000205111166882922</v>
+        <v>0.00247182300139559</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9989831778</v>
+        <v>0.996824313</v>
       </c>
       <c r="U24" t="n">
-        <v>0.9991156514</v>
+        <v>0.9996968092</v>
       </c>
       <c r="V24" t="n">
-        <v>0.9990494146</v>
+        <v>0.99877852658</v>
       </c>
       <c r="W24" t="n">
-        <v>0.9990494146</v>
+        <v>0.99893823695</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0000936729808882055</v>
+        <v>0.000827984667840882</v>
       </c>
       <c r="Y24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>43.74263502</v>
+        <v>0.8323418807</v>
       </c>
       <c r="AA24" t="n">
-        <v>44.6740719</v>
+        <v>8.348868372</v>
       </c>
       <c r="AB24" t="n">
-        <v>44.20835346</v>
+        <v>2.35387375237</v>
       </c>
       <c r="AC24" t="n">
-        <v>44.20835346</v>
+        <v>1.6548911805</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.65862533409524</v>
+        <v>2.22712242077432</v>
       </c>
       <c r="AE24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.1004648173</v>
+        <v>0.1913413681</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.1004648173</v>
+        <v>4.192714753</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.1004648173</v>
+        <v>1.31374597765</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.1004648173</v>
+        <v>0.8619015322</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1.33722866649441</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.07663489617</v>
+        <v>0.1468215736</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.09994383088</v>
+        <v>1.139163136</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.088289363525</v>
+        <v>0.46702950769</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.088289363525</v>
+        <v>0.3892112906</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.0164819057956755</v>
+        <v>0.313398245396929</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.2368160362</v>
+        <v>0.3846998791</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.2608171702</v>
+        <v>1.538942513</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.2488166032</v>
+        <v>0.79840677399</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.2488166032</v>
+        <v>0.7038539264</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.016971364607567</v>
+        <v>0.407275439501926</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.01654115803</v>
+        <v>0.01685242918</v>
       </c>
       <c r="AY24" t="n">
-        <v>0.01702858706</v>
+        <v>0.01897771794</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.016784872545</v>
+        <v>0.017784568971</v>
       </c>
       <c r="BA24" t="n">
-        <v>0.016784872545</v>
+        <v>0.0176547103</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.000344664372460181</v>
+        <v>0.000746777761139035</v>
       </c>
     </row>
     <row r="25">
@@ -4399,325 +4373,335 @@
         <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C25"/>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
+      <c r="D25"/>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2796867046</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2.211462816</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.51740401353333</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2.06106252</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.07452927595487</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N25" t="n">
-        <v>0.001469931208</v>
+        <v>0.000703</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004537845783</v>
+        <v>0.008293</v>
       </c>
       <c r="P25" t="n">
-        <v>0.00289722963233333</v>
+        <v>0.004202</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.002683911906</v>
+        <v>0.0043375</v>
       </c>
       <c r="R25" t="n">
-        <v>0.00154504152020273</v>
+        <v>0.00227305379513015</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9971920728</v>
+        <v>0.998998</v>
       </c>
       <c r="U25" t="n">
-        <v>0.9992655104</v>
+        <v>0.999857</v>
       </c>
       <c r="V25" t="n">
-        <v>0.9983682546</v>
+        <v>0.9995578</v>
       </c>
       <c r="W25" t="n">
-        <v>0.9986471806</v>
+        <v>0.9995835</v>
       </c>
       <c r="X25" t="n">
-        <v>0.00106448844774401</v>
+        <v>0.000253862079790482</v>
       </c>
       <c r="Y25" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>4.795822322</v>
+        <v>0.837315</v>
       </c>
       <c r="AA25" t="n">
-        <v>45.72611112</v>
+        <v>6.578257</v>
       </c>
       <c r="AB25" t="n">
-        <v>31.0729556106667</v>
+        <v>2.1136205</v>
       </c>
       <c r="AC25" t="n">
-        <v>42.69693339</v>
+        <v>1.552351</v>
       </c>
       <c r="AD25" t="n">
-        <v>22.8070116374931</v>
+        <v>1.71380748283576</v>
       </c>
       <c r="AE25" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.08340500545</v>
+        <v>0.075018</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.1004648173</v>
+        <v>1.408678</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.09477821335</v>
+        <v>0.4084331</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.1004648173</v>
+        <v>0.2708995</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.00984948696392186</v>
+        <v>0.432262345425514</v>
       </c>
       <c r="AK25" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.0925234176</v>
+        <v>0.129403156797401</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.6360268217</v>
+        <v>0.955699412279703</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.298697730733333</v>
+        <v>0.45085590428542</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.1675429529</v>
+        <v>0.349176495714442</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.294533817037119</v>
+        <v>0.29374402971694</v>
       </c>
       <c r="AQ25" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.1887983624</v>
+        <v>0.385914798480832</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.683337179</v>
+        <v>1.8317207798495</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.696236755566667</v>
+        <v>0.769163714937585</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.2165747253</v>
+        <v>0.612284305228836</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.85496685084317</v>
+        <v>0.45419859864708</v>
       </c>
       <c r="AW25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0.01664714141</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0.01736527476</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0.0170320436933333</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0.01708371491</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>0.000361844321593439</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AX25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AY25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA25"/>
+      <c r="BB25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26"/>
+        <v>68</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>5.800245268</v>
+        <v>0.6123027442</v>
       </c>
       <c r="I26" t="n">
-        <v>5.800245268</v>
+        <v>3.00077514</v>
       </c>
       <c r="J26" t="n">
-        <v>5.800245268</v>
+        <v>1.51528298393333</v>
       </c>
       <c r="K26" t="n">
-        <v>5.800245268</v>
-      </c>
-      <c r="L26"/>
+        <v>0.9327710676</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.29641436118141</v>
+      </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.003140677635</v>
+        <v>0.001807816103</v>
       </c>
       <c r="O26" t="n">
-        <v>0.003140677635</v>
+        <v>0.005482672202</v>
       </c>
       <c r="P26" t="n">
-        <v>0.003140677635</v>
+        <v>0.00421568357733333</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.003140677635</v>
-      </c>
-      <c r="R26"/>
+        <v>0.005356562427</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.00208622751618847</v>
+      </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>0.9963200889</v>
+        <v>0.9941755437</v>
       </c>
       <c r="U26" t="n">
-        <v>0.9963200889</v>
+        <v>0.9989563198</v>
       </c>
       <c r="V26" t="n">
-        <v>0.9963200889</v>
+        <v>0.995992376666667</v>
       </c>
       <c r="W26" t="n">
-        <v>0.9963200889</v>
-      </c>
-      <c r="X26"/>
+        <v>0.9948452665</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.00258860026470584</v>
+      </c>
       <c r="Y26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z26" t="n">
-        <v>41.82057545</v>
+        <v>8.888780751</v>
       </c>
       <c r="AA26" t="n">
-        <v>41.82057545</v>
+        <v>45.01255794</v>
       </c>
       <c r="AB26" t="n">
-        <v>41.82057545</v>
+        <v>22.7956479636667</v>
       </c>
       <c r="AC26" t="n">
-        <v>41.82057545</v>
-      </c>
-      <c r="AD26"/>
+        <v>14.4856052</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>19.4428502964613</v>
+      </c>
       <c r="AE26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.1868186706</v>
+        <v>0.08340500545</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.1868186706</v>
+        <v>0.1004648173</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.1868186706</v>
+        <v>0.09477821335</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.1868186706</v>
-      </c>
-      <c r="AJ26"/>
+        <v>0.1004648173</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.00984948696392186</v>
+      </c>
       <c r="AK26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.4646806483</v>
+        <v>0.1510845649</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.4646806483</v>
+        <v>1.407488469</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.4646806483</v>
+        <v>0.658240708</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.4646806483</v>
-      </c>
-      <c r="AP26"/>
+        <v>0.4161490901</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.66226426458968</v>
+      </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>0.6964868487</v>
+        <v>0.2939818514</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.6964868487</v>
+        <v>2.632780996</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.6964868487</v>
+        <v>1.22662344883333</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.6964868487</v>
-      </c>
-      <c r="AV26"/>
+        <v>0.7531074991</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1.23921683965492</v>
+      </c>
       <c r="AW26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.01873237941</v>
+        <v>0.01777009452</v>
       </c>
       <c r="AY26" t="n">
-        <v>0.01873237941</v>
+        <v>0.01924373071</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.01873237941</v>
+        <v>0.0183540275833333</v>
       </c>
       <c r="BA26" t="n">
-        <v>0.01873237941</v>
-      </c>
-      <c r="BB26"/>
+        <v>0.01804825752</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0.000782957472563218</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27"/>
+        <v>68</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -4741,55 +4725,55 @@
         <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.000149</v>
+        <v>0.001887</v>
       </c>
       <c r="O27" t="n">
-        <v>0.000899</v>
+        <v>0.006957</v>
       </c>
       <c r="P27" t="n">
-        <v>0.000574666666666667</v>
+        <v>0.00480733333333333</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.000676</v>
+        <v>0.005578</v>
       </c>
       <c r="R27" t="n">
-        <v>0.000385131579247059</v>
+        <v>0.00262138710100842</v>
       </c>
       <c r="S27" t="n">
         <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>0.999197</v>
+        <v>0.996996</v>
       </c>
       <c r="U27" t="n">
-        <v>0.999765</v>
+        <v>0.999617</v>
       </c>
       <c r="V27" t="n">
-        <v>0.999533</v>
+        <v>0.998694666666667</v>
       </c>
       <c r="W27" t="n">
-        <v>0.999637</v>
+        <v>0.999471</v>
       </c>
       <c r="X27" t="n">
-        <v>0.000297939591192581</v>
+        <v>0.00147289861610816</v>
       </c>
       <c r="Y27" t="n">
         <v>3</v>
       </c>
       <c r="Z27" t="n">
-        <v>42.319397</v>
+        <v>7.059912</v>
       </c>
       <c r="AA27" t="n">
-        <v>63.427686</v>
+        <v>37.446294</v>
       </c>
       <c r="AB27" t="n">
-        <v>51.3871813333333</v>
+        <v>18.4077253333333</v>
       </c>
       <c r="AC27" t="n">
-        <v>48.414461</v>
+        <v>10.71697</v>
       </c>
       <c r="AD27" t="n">
-        <v>10.8635981959036</v>
+        <v>16.5889674470829</v>
       </c>
       <c r="AE27" t="n">
         <v>3</v>
@@ -4798,52 +4782,52 @@
         <v>0.014514</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.09071</v>
+        <v>0.032655</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.054426</v>
+        <v>0.026608</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.058054</v>
+        <v>0.032655</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.0382273382803459</v>
+        <v>0.010473711233369</v>
       </c>
       <c r="AK27" t="n">
         <v>3</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.110854890515279</v>
+        <v>0.111434934399158</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.295241415728882</v>
+        <v>1.48972468617703</v>
       </c>
       <c r="AN27" t="n">
-        <v>0.210552372888711</v>
+        <v>0.679354152929443</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.225560812421973</v>
+        <v>0.43690283821214</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.0931049816766228</v>
+        <v>0.720421848620715</v>
       </c>
       <c r="AQ27" t="n">
         <v>3</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.167572046576051</v>
+        <v>0.219598515582635</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.360588658778743</v>
+        <v>2.16855673664184</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.293723799455144</v>
+        <v>1.01819068852673</v>
       </c>
       <c r="AU27" t="n">
-        <v>0.35301069301064</v>
+        <v>0.666416813355729</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.109316306913226</v>
+        <v>1.02098882525627</v>
       </c>
       <c r="AW27" t="n">
         <v>0</v>
@@ -4862,17 +4846,17 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28"/>
+        <v>68</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
         <v>57</v>
@@ -4899,213 +4883,217 @@
         <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.000651</v>
+        <v>0.002003087339</v>
       </c>
       <c r="O28" t="n">
-        <v>0.001134</v>
+        <v>0.004004750868</v>
       </c>
       <c r="P28" t="n">
-        <v>0.00088225</v>
+        <v>0.002851159634</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.000872</v>
+        <v>0.0026984001645</v>
       </c>
       <c r="R28" t="n">
-        <v>0.000210200499523669</v>
+        <v>0.00083636224816724</v>
       </c>
       <c r="S28" t="n">
         <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>0.99683</v>
+        <v>0.9934198948</v>
       </c>
       <c r="U28" t="n">
-        <v>0.999683</v>
+        <v>0.9991144199</v>
       </c>
       <c r="V28" t="n">
-        <v>0.99878525</v>
+        <v>0.9973466185</v>
       </c>
       <c r="W28" t="n">
-        <v>0.999314</v>
+        <v>0.99842607965</v>
       </c>
       <c r="X28" t="n">
-        <v>0.00131894689683349</v>
+        <v>0.00269480417669345</v>
       </c>
       <c r="Y28" t="n">
         <v>4</v>
       </c>
       <c r="Z28" t="n">
-        <v>46.283916</v>
+        <v>2.445318468</v>
       </c>
       <c r="AA28" t="n">
-        <v>60.965952</v>
+        <v>49.1789018</v>
       </c>
       <c r="AB28" t="n">
-        <v>52.20630125</v>
+        <v>29.909897767</v>
       </c>
       <c r="AC28" t="n">
-        <v>50.7876685</v>
+        <v>34.0076854</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.55702192375367</v>
+        <v>21.5713496215021</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.014514</v>
+        <v>0.07838834353</v>
       </c>
       <c r="AG28" t="n">
-        <v>26.215076</v>
+        <v>0.2250309019</v>
       </c>
       <c r="AH28" t="n">
-        <v>6.58007475</v>
+        <v>0.1260872200075</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.0453545</v>
+        <v>0.1004648173</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13.090013013688</v>
+        <v>0.066778364871343</v>
       </c>
       <c r="AK28" t="n">
         <v>4</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.0898163556406646</v>
+        <v>0.1753363325</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.485065971104527</v>
+        <v>0.7292764348</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.239538361687959</v>
+        <v>0.406228249725</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.191635560003322</v>
+        <v>0.3601501158</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.181150100201254</v>
+        <v>0.259898151969492</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>0.129379200249306</v>
+        <v>0.3175200085</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.62215353276742</v>
+        <v>1.478204278</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.320647231120894</v>
+        <v>0.90357104865</v>
       </c>
       <c r="AU28" t="n">
-        <v>0.265528095733424</v>
+        <v>0.90927995405</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.227057826478302</v>
+        <v>0.618889457066963</v>
       </c>
       <c r="AW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AY28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="BA28"/>
-      <c r="BB28"/>
+        <v>4</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0.01660217518</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0.01869619765</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0.0179062071175</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0.01816322782</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0.000938902161312765</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29"/>
+        <v>68</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2889421075</v>
+        <v>0.2394835485</v>
       </c>
       <c r="I29" t="n">
-        <v>4.101011153</v>
+        <v>4.866895738</v>
       </c>
       <c r="J29" t="n">
-        <v>2.866861030125</v>
+        <v>2.971779698375</v>
       </c>
       <c r="K29" t="n">
-        <v>3.53874543</v>
+        <v>3.3903697535</v>
       </c>
       <c r="L29" t="n">
-        <v>1.77674843592688</v>
+        <v>2.10587103778341</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.000368</v>
+        <v>0.001742</v>
       </c>
       <c r="O29" t="n">
-        <v>0.002139</v>
+        <v>0.004307</v>
       </c>
       <c r="P29" t="n">
-        <v>0.001114</v>
+        <v>0.0029625</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0009745</v>
+        <v>0.0029005</v>
       </c>
       <c r="R29" t="n">
-        <v>0.000742489955038675</v>
+        <v>0.00130584493719584</v>
       </c>
       <c r="S29" t="n">
         <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>0.999409</v>
+        <v>0.999254</v>
       </c>
       <c r="U29" t="n">
-        <v>0.999995</v>
+        <v>0.999792</v>
       </c>
       <c r="V29" t="n">
-        <v>0.999724</v>
+        <v>0.999478</v>
       </c>
       <c r="W29" t="n">
-        <v>0.999746</v>
+        <v>0.999433</v>
       </c>
       <c r="X29" t="n">
-        <v>0.000305699198559615</v>
+        <v>0.000228169527617829</v>
       </c>
       <c r="Y29" t="n">
         <v>4</v>
       </c>
       <c r="Z29" t="n">
-        <v>42.111092</v>
+        <v>2.314131</v>
       </c>
       <c r="AA29" t="n">
-        <v>62.234621</v>
+        <v>41.260755</v>
       </c>
       <c r="AB29" t="n">
-        <v>50.58734125</v>
+        <v>25.23230975</v>
       </c>
       <c r="AC29" t="n">
-        <v>49.001826</v>
+        <v>28.6771765</v>
       </c>
       <c r="AD29" t="n">
-        <v>8.92180720782097</v>
+        <v>18.2972151098333</v>
       </c>
       <c r="AE29" t="n">
         <v>4</v>
@@ -5114,52 +5102,52 @@
         <v>0.014514</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.711163</v>
+        <v>0.09071</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.338347</v>
+        <v>0.03809825</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.3138555</v>
+        <v>0.0235845</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.376062900826444</v>
+        <v>0.0361019801153621</v>
       </c>
       <c r="AK29" t="n">
         <v>4</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.0788229058864805</v>
+        <v>0.142359129935648</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.463805863837215</v>
+        <v>0.627918961281224</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.204139132457792</v>
+        <v>0.363768093949634</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.136963880053736</v>
+        <v>0.342397142290832</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.179217526328107</v>
+        <v>0.250867160114767</v>
       </c>
       <c r="AQ29" t="n">
         <v>4</v>
       </c>
       <c r="AR29" t="n">
-        <v>0.111926610491855</v>
+        <v>0.238377296804313</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.91846164707884</v>
+        <v>1.26792759112418</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.391634695416922</v>
+        <v>0.773810634947521</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.268075262048496</v>
+        <v>0.794468825930796</v>
       </c>
       <c r="AV29" t="n">
-        <v>0.374246822710395</v>
+        <v>0.545706120507354</v>
       </c>
       <c r="AW29" t="n">
         <v>0</v>
@@ -5178,17 +5166,17 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30"/>
+        <v>68</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
         <v>57</v>
@@ -5197,285 +5185,289 @@
         <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2736128465</v>
+        <v>0.2889421075</v>
       </c>
       <c r="I30" t="n">
-        <v>4.661541487</v>
+        <v>4.101011153</v>
       </c>
       <c r="J30" t="n">
-        <v>2.737068466625</v>
+        <v>2.866861030125</v>
       </c>
       <c r="K30" t="n">
-        <v>3.0065597665</v>
+        <v>3.53874543</v>
       </c>
       <c r="L30" t="n">
-        <v>2.16436934525046</v>
+        <v>1.77674843592688</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.00062</v>
+        <v>0.001557564455</v>
       </c>
       <c r="O30" t="n">
-        <v>0.001998</v>
+        <v>0.007075581839</v>
       </c>
       <c r="P30" t="n">
-        <v>0.00132175</v>
+        <v>0.0039216402375</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0013345</v>
+        <v>0.003526707328</v>
       </c>
       <c r="R30" t="n">
-        <v>0.000675451639028781</v>
+        <v>0.00259226232461313</v>
       </c>
       <c r="S30" t="n">
         <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>0.999181</v>
+        <v>0.9233653816</v>
       </c>
       <c r="U30" t="n">
-        <v>0.999991</v>
+        <v>0.9981923748</v>
       </c>
       <c r="V30" t="n">
-        <v>0.9996455</v>
+        <v>0.97551618815</v>
       </c>
       <c r="W30" t="n">
-        <v>0.999705</v>
+        <v>0.9902534981</v>
       </c>
       <c r="X30" t="n">
-        <v>0.000393793092879988</v>
+        <v>0.0354806249349532</v>
       </c>
       <c r="Y30" t="n">
         <v>4</v>
       </c>
       <c r="Z30" t="n">
-        <v>23.142818</v>
+        <v>1.6949705</v>
       </c>
       <c r="AA30" t="n">
-        <v>56.63966</v>
+        <v>55.58561369</v>
       </c>
       <c r="AB30" t="n">
-        <v>44.34371225</v>
+        <v>30.559207425</v>
       </c>
       <c r="AC30" t="n">
-        <v>48.7961855</v>
+        <v>32.478122755</v>
       </c>
       <c r="AD30" t="n">
-        <v>14.8594729893869</v>
+        <v>28.2912120795614</v>
       </c>
       <c r="AE30" t="n">
         <v>4</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.032655</v>
+        <v>0.08340500545</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.522487</v>
+        <v>0.9972802751</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.2630575</v>
+        <v>0.3204037287875</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.248544</v>
+        <v>0.1004648173</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.253891801785065</v>
+        <v>0.451322686993152</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.064123526597</v>
+        <v>0.1004931439</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.559375101445209</v>
+        <v>10.32469331</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.233904705791873</v>
+        <v>2.8761120663</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.156060097562642</v>
+        <v>0.53963090565</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.227785668578554</v>
+        <v>4.98238226572338</v>
       </c>
       <c r="AQ30" t="n">
         <v>4</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.181529754401931</v>
+        <v>0.1951037382</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.679911195549716</v>
+        <v>36.41591664</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.352358078713472</v>
+        <v>10.658599809125</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.27399568245112</v>
+        <v>3.01168942915</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.234848349138564</v>
+        <v>17.3721702577839</v>
       </c>
       <c r="AW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX30" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AY30" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ30" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="BA30"/>
-      <c r="BB30"/>
+        <v>4</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0.01649338863</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0.01795356794</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0.0170521764775</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0.01688087467</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0.000637577056355895</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31"/>
+        <v>68</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>2.646177519</v>
+        <v>0.2889421075</v>
       </c>
       <c r="I31" t="n">
-        <v>4.923874312</v>
+        <v>4.101011153</v>
       </c>
       <c r="J31" t="n">
-        <v>3.97121858975</v>
+        <v>2.866861030125</v>
       </c>
       <c r="K31" t="n">
-        <v>4.157411264</v>
+        <v>3.53874543</v>
       </c>
       <c r="L31" t="n">
-        <v>0.988439524190275</v>
+        <v>1.77674843592688</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.000823</v>
+        <v>0.001734</v>
       </c>
       <c r="O31" t="n">
-        <v>0.001423</v>
+        <v>0.009166</v>
       </c>
       <c r="P31" t="n">
-        <v>0.001077</v>
+        <v>0.00373875</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.001031</v>
+        <v>0.0020275</v>
       </c>
       <c r="R31" t="n">
-        <v>0.000252760756447673</v>
+        <v>0.00362195539959656</v>
       </c>
       <c r="S31" t="n">
         <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>0.99905</v>
+        <v>0.996661</v>
       </c>
       <c r="U31" t="n">
-        <v>0.999975</v>
+        <v>0.999563</v>
       </c>
       <c r="V31" t="n">
-        <v>0.99961925</v>
+        <v>0.998579</v>
       </c>
       <c r="W31" t="n">
-        <v>0.999726</v>
+        <v>0.999046</v>
       </c>
       <c r="X31" t="n">
-        <v>0.000442582101611276</v>
+        <v>0.00134756768537487</v>
       </c>
       <c r="Y31" t="n">
         <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>38.036717</v>
+        <v>1.453198</v>
       </c>
       <c r="AA31" t="n">
-        <v>64.33913</v>
+        <v>47.532028</v>
       </c>
       <c r="AB31" t="n">
-        <v>47.012045</v>
+        <v>26.59509575</v>
       </c>
       <c r="AC31" t="n">
-        <v>42.8361665</v>
+        <v>28.6975785</v>
       </c>
       <c r="AD31" t="n">
-        <v>11.7979477838089</v>
+        <v>23.5756902381135</v>
       </c>
       <c r="AE31" t="n">
         <v>4</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.032655</v>
+        <v>0.014514</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.439034</v>
+        <v>0.928866</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.17053375</v>
+        <v>0.24763725</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.105223</v>
+        <v>0.0235845</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.19162998315395</v>
+        <v>0.454233008129363</v>
       </c>
       <c r="AK31" t="n">
         <v>4</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.0939397452294676</v>
+        <v>0.0735873258428672</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.438126459948937</v>
+        <v>3.63859440283608</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.237826114738521</v>
+        <v>1.2589910647095</v>
       </c>
       <c r="AO31" t="n">
-        <v>0.209619126887839</v>
+        <v>0.661891265079533</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.168054714007132</v>
+        <v>1.67813712666212</v>
       </c>
       <c r="AQ31" t="n">
         <v>4</v>
       </c>
       <c r="AR31" t="n">
-        <v>0.125723356620159</v>
+        <v>0.139404927919054</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.578898706408148</v>
+        <v>6.98551143117234</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.325165388789682</v>
+        <v>2.72493695381651</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.298019746065211</v>
+        <v>1.88741572808731</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.222836381969387</v>
+        <v>3.27735427973907</v>
       </c>
       <c r="AW31" t="n">
         <v>0</v>
@@ -5494,17 +5486,17 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32"/>
+        <v>68</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
         <v>57</v>
@@ -5513,285 +5505,289 @@
         <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3271206442</v>
+        <v>0.2736128465</v>
       </c>
       <c r="I32" t="n">
-        <v>4.891769633</v>
+        <v>4.661541487</v>
       </c>
       <c r="J32" t="n">
-        <v>2.56107119705</v>
+        <v>2.737068466625</v>
       </c>
       <c r="K32" t="n">
-        <v>2.5126972555</v>
+        <v>3.0065597665</v>
       </c>
       <c r="L32" t="n">
-        <v>1.9704067798324</v>
+        <v>2.16436934525046</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>0.000465</v>
+        <v>0.0003305038118</v>
       </c>
       <c r="O32" t="n">
-        <v>0.001913</v>
+        <v>0.006599490184</v>
       </c>
       <c r="P32" t="n">
-        <v>0.00109675</v>
+        <v>0.0039659883497</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0010045</v>
+        <v>0.0044669797015</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0006374837906436</v>
+        <v>0.0028839563689639</v>
       </c>
       <c r="S32" t="n">
         <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>0.999008</v>
+        <v>0.9097145607</v>
       </c>
       <c r="U32" t="n">
-        <v>0.99999</v>
+        <v>0.9988839764</v>
       </c>
       <c r="V32" t="n">
-        <v>0.999486</v>
+        <v>0.975850219425</v>
       </c>
       <c r="W32" t="n">
-        <v>0.999473</v>
+        <v>0.9974011703</v>
       </c>
       <c r="X32" t="n">
-        <v>0.000545666564854401</v>
+        <v>0.0441035891856082</v>
       </c>
       <c r="Y32" t="n">
         <v>4</v>
       </c>
       <c r="Z32" t="n">
-        <v>34.42806</v>
+        <v>4.197067473</v>
       </c>
       <c r="AA32" t="n">
-        <v>62.819747</v>
+        <v>52.04521745</v>
       </c>
       <c r="AB32" t="n">
-        <v>47.702706</v>
+        <v>22.60779744275</v>
       </c>
       <c r="AC32" t="n">
-        <v>46.7815085</v>
+        <v>17.094452424</v>
       </c>
       <c r="AD32" t="n">
-        <v>11.6586527749944</v>
+        <v>22.8685932726795</v>
       </c>
       <c r="AE32" t="n">
         <v>4</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.014514</v>
+        <v>0.07838834353</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.232217</v>
+        <v>3.04613068</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.1233655</v>
+        <v>0.8501414256075</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.1233655</v>
+        <v>0.13802333945</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.125690885653389</v>
+        <v>1.46458381432416</v>
       </c>
       <c r="AK32" t="n">
         <v>4</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.0780663217873339</v>
+        <v>0.160685842</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.427487314222482</v>
+        <v>5.640511661</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.212941995930709</v>
+        <v>2.072835025425</v>
       </c>
       <c r="AO32" t="n">
-        <v>0.17310717385651</v>
+        <v>1.24507129935</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.163611190317775</v>
+        <v>2.56337421790091</v>
       </c>
       <c r="AQ32" t="n">
         <v>4</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.109857763379781</v>
+        <v>0.2179132886</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.62889135193001</v>
+        <v>10.21086867</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.321362393103858</v>
+        <v>3.33805785855</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.27335022855282</v>
+        <v>1.4617247378</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.243896608063934</v>
+        <v>4.67001566513468</v>
       </c>
       <c r="AW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AY32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="BA32"/>
-      <c r="BB32"/>
+        <v>4</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0.01595719018</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0.01888923869</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0.01732885529</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0.017234496145</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0.00125497658850918</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33"/>
+        <v>68</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>1.766335786</v>
+        <v>0.2736128465</v>
       </c>
       <c r="I33" t="n">
-        <v>1.92280994</v>
+        <v>4.661541487</v>
       </c>
       <c r="J33" t="n">
-        <v>1.844572863</v>
+        <v>2.737068466625</v>
       </c>
       <c r="K33" t="n">
-        <v>1.844572863</v>
+        <v>3.0065597665</v>
       </c>
       <c r="L33" t="n">
-        <v>0.110643935373828</v>
+        <v>2.16436934525046</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>0.00133</v>
+        <v>0.000644</v>
       </c>
       <c r="O33" t="n">
-        <v>0.001502</v>
+        <v>0.009006</v>
       </c>
       <c r="P33" t="n">
-        <v>0.001416</v>
+        <v>0.00369</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.001416</v>
+        <v>0.002555</v>
       </c>
       <c r="R33" t="n">
-        <v>0.000121622366364086</v>
+        <v>0.00366152163269134</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T33" t="n">
-        <v>0.999313</v>
+        <v>0.99525</v>
       </c>
       <c r="U33" t="n">
-        <v>0.99946</v>
+        <v>0.999789</v>
       </c>
       <c r="V33" t="n">
-        <v>0.9993865</v>
+        <v>0.9982295</v>
       </c>
       <c r="W33" t="n">
-        <v>0.9993865</v>
+        <v>0.9989395</v>
       </c>
       <c r="X33" t="n">
-        <v>0.000103944696834428</v>
+        <v>0.00202812894067416</v>
       </c>
       <c r="Y33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z33" t="n">
-        <v>39.32644</v>
+        <v>3.616868</v>
       </c>
       <c r="AA33" t="n">
-        <v>42.523937</v>
+        <v>44.129257</v>
       </c>
       <c r="AB33" t="n">
-        <v>40.9251885</v>
+        <v>19.60592075</v>
       </c>
       <c r="AC33" t="n">
-        <v>40.9251885</v>
+        <v>15.338779</v>
       </c>
       <c r="AD33" t="n">
-        <v>2.26097181152364</v>
+        <v>19.2327629261984</v>
       </c>
       <c r="AE33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF33" t="n">
         <v>0.014514</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.014514</v>
+        <v>0.928866</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.014514</v>
+        <v>0.26668625</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.014514</v>
+        <v>0.0616825</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>0.442647764978261</v>
       </c>
       <c r="AK33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.0845713386389417</v>
+        <v>0.103363088185532</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.114212943510068</v>
+        <v>3.07404466664286</v>
       </c>
       <c r="AN33" t="n">
-        <v>0.099392141074505</v>
+        <v>1.48085541219035</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.099392141074505</v>
+        <v>1.3730069469665</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.0209597798096259</v>
+        <v>1.5149265269514</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR33" t="n">
-        <v>0.14819769555288</v>
+        <v>0.158442470474773</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.161106867990514</v>
+        <v>4.34188139028749</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.154652281771697</v>
+        <v>1.91442049832525</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.154652281771697</v>
+        <v>1.57867906626938</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.00912816337015719</v>
+        <v>1.92128876439113</v>
       </c>
       <c r="AW33" t="n">
         <v>0</v>
@@ -5810,291 +5806,309 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34"/>
+        <v>68</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
         <v>57</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2796867046</v>
+        <v>2.646177519</v>
       </c>
       <c r="I34" t="n">
-        <v>2.211462816</v>
+        <v>4.923874312</v>
       </c>
       <c r="J34" t="n">
-        <v>1.51740401353333</v>
+        <v>3.97121858975</v>
       </c>
       <c r="K34" t="n">
-        <v>2.06106252</v>
+        <v>4.157411264</v>
       </c>
       <c r="L34" t="n">
-        <v>1.07452927595487</v>
+        <v>0.988439524190275</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" t="n">
-        <v>0.000699</v>
+        <v>0.001342898516</v>
       </c>
       <c r="O34" t="n">
-        <v>0.001594</v>
+        <v>0.005991581983</v>
       </c>
       <c r="P34" t="n">
-        <v>0.00107666666666667</v>
+        <v>0.00356916864575</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.000937</v>
+        <v>0.003471097042</v>
       </c>
       <c r="R34" t="n">
-        <v>0.000463558338651494</v>
+        <v>0.00218887888416554</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T34" t="n">
-        <v>0.999494</v>
+        <v>0.9935653584</v>
       </c>
       <c r="U34" t="n">
-        <v>0.999976</v>
+        <v>0.9988323968</v>
       </c>
       <c r="V34" t="n">
-        <v>0.99971</v>
+        <v>0.997009441725</v>
       </c>
       <c r="W34" t="n">
-        <v>0.99966</v>
+        <v>0.99782000585</v>
       </c>
       <c r="X34" t="n">
-        <v>0.000244859143182352</v>
+        <v>0.00240439309929278</v>
       </c>
       <c r="Y34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z34" t="n">
-        <v>42.19568</v>
+        <v>29.63050783</v>
       </c>
       <c r="AA34" t="n">
-        <v>47.311054</v>
+        <v>44.85846689</v>
       </c>
       <c r="AB34" t="n">
-        <v>45.0680716666667</v>
+        <v>36.36487685</v>
       </c>
       <c r="AC34" t="n">
-        <v>45.697481</v>
+        <v>35.48526634</v>
       </c>
       <c r="AD34" t="n">
-        <v>2.61512521146394</v>
+        <v>6.78599069455892</v>
       </c>
       <c r="AE34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.014514</v>
+        <v>0.1004648173</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.439034</v>
+        <v>0.3265020617</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.156020666666667</v>
+        <v>0.17311315575</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.014514</v>
+        <v>0.132742872</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.24509673627638</v>
+        <v>0.106691459824779</v>
       </c>
       <c r="AK34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.071093552349034</v>
+        <v>0.09025540084</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.320417896018309</v>
+        <v>1.729337224</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.156828703176377</v>
+        <v>0.81853750061</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.0789746611617883</v>
+        <v>0.7272786888</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.14172718857028</v>
+        <v>0.780064136384275</v>
       </c>
       <c r="AQ34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR34" t="n">
-        <v>0.126669001800946</v>
+        <v>0.2586428146</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.540891963746698</v>
+        <v>5.076058089</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.267159067832803</v>
+        <v>1.8595322501</v>
       </c>
       <c r="AU34" t="n">
-        <v>0.133916237950765</v>
+        <v>1.0517140484</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.237087334830455</v>
+        <v>2.24785217127257</v>
       </c>
       <c r="AW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AY34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="BA34"/>
-      <c r="BB34"/>
+        <v>4</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0.01708514642</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0.01764294591</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0.0173270408825</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0.0172900356</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0.000255857898743912</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35"/>
+        <v>68</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
         <v>58</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
-        <v>5.800245268</v>
+        <v>2.646177519</v>
       </c>
       <c r="I35" t="n">
-        <v>5.800245268</v>
+        <v>4.923874312</v>
       </c>
       <c r="J35" t="n">
-        <v>5.800245268</v>
+        <v>3.97121858975</v>
       </c>
       <c r="K35" t="n">
-        <v>5.800245268</v>
-      </c>
-      <c r="L35"/>
+        <v>4.157411264</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.988439524190275</v>
+      </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N35" t="n">
-        <v>0.004841</v>
+        <v>0.001843</v>
       </c>
       <c r="O35" t="n">
-        <v>0.004841</v>
+        <v>0.002678</v>
       </c>
       <c r="P35" t="n">
-        <v>0.004841</v>
+        <v>0.0021015</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.004841</v>
-      </c>
-      <c r="R35"/>
+        <v>0.0019425</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.000394482361244876</v>
+      </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
-        <v>0.99958</v>
+        <v>0.99893</v>
       </c>
       <c r="U35" t="n">
-        <v>0.99958</v>
+        <v>0.999603</v>
       </c>
       <c r="V35" t="n">
-        <v>0.99958</v>
+        <v>0.99927075</v>
       </c>
       <c r="W35" t="n">
-        <v>0.99958</v>
-      </c>
-      <c r="X35"/>
+        <v>0.999275</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.000364878404403459</v>
+      </c>
       <c r="Y35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z35" t="n">
-        <v>62.269491</v>
+        <v>23.258608</v>
       </c>
       <c r="AA35" t="n">
-        <v>62.269491</v>
+        <v>38.331227</v>
       </c>
       <c r="AB35" t="n">
-        <v>62.269491</v>
+        <v>29.811954</v>
       </c>
       <c r="AC35" t="n">
-        <v>62.269491</v>
-      </c>
-      <c r="AD35"/>
+        <v>28.8289905</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.56284659651471</v>
+      </c>
       <c r="AE35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.09071</v>
+        <v>0.014514</v>
       </c>
       <c r="AG35" t="n">
         <v>0.09071</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.09071</v>
+        <v>0.044448</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.09071</v>
-      </c>
-      <c r="AJ35"/>
+        <v>0.036284</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.0370467479094544</v>
+      </c>
       <c r="AK35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.333562223925119</v>
+        <v>0.0808756703113495</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.333562223925119</v>
+        <v>1.15120732776973</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.333562223925119</v>
+        <v>0.611734478996843</v>
       </c>
       <c r="AO35" t="n">
-        <v>0.333562223925119</v>
-      </c>
-      <c r="AP35"/>
+        <v>0.607427458953147</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.548302195244949</v>
+      </c>
       <c r="AQ35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AR35" t="n">
-        <v>0.419202515447241</v>
+        <v>0.214061442351137</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.419202515447241</v>
+        <v>2.25215131553443</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.419202515447241</v>
+        <v>1.06061524543021</v>
       </c>
       <c r="AU35" t="n">
-        <v>0.419202515447241</v>
-      </c>
-      <c r="AV35"/>
+        <v>0.888124111917628</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0.976836337978275</v>
+      </c>
       <c r="AW35" t="n">
         <v>0</v>
       </c>
@@ -6112,940 +6126,948 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B36"/>
       <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
         <v>71</v>
       </c>
-      <c r="D36"/>
-      <c r="E36"/>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
       <c r="F36" t="s">
         <v>57</v>
       </c>
       <c r="G36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.3271206442</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4.891769633</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2.56107119705</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>2.5126972555</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.9704067798324</v>
       </c>
       <c r="M36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0003988616117</v>
+        <v>0.0002049663924</v>
       </c>
       <c r="O36" t="n">
-        <v>0.006248850204</v>
+        <v>0.006006712705</v>
       </c>
       <c r="P36" t="n">
-        <v>0.00250917018887</v>
+        <v>0.00304728943185</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.00252730424</v>
+        <v>0.002988739315</v>
       </c>
       <c r="R36" t="n">
-        <v>0.00159406231681315</v>
+        <v>0.00255474362105596</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9973668344</v>
+        <v>0.987344213</v>
       </c>
       <c r="U36" t="n">
-        <v>0.9994838334</v>
+        <v>0.9985162009</v>
       </c>
       <c r="V36" t="n">
-        <v>0.99883944006</v>
+        <v>0.99477804315</v>
       </c>
       <c r="W36" t="n">
-        <v>0.9988656683</v>
+        <v>0.99662587935</v>
       </c>
       <c r="X36" t="n">
-        <v>0.000599207912616365</v>
+        <v>0.0052561963832895</v>
       </c>
       <c r="Y36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.903044494</v>
+        <v>5.671158448</v>
       </c>
       <c r="AA36" t="n">
-        <v>12.22969371</v>
+        <v>52.35611571</v>
       </c>
       <c r="AB36" t="n">
-        <v>6.199624012</v>
+        <v>28.93355824175</v>
       </c>
       <c r="AC36" t="n">
-        <v>4.937573921</v>
+        <v>28.8534794045</v>
       </c>
       <c r="AD36" t="n">
-        <v>4.12517716814893</v>
+        <v>24.7612557834655</v>
       </c>
       <c r="AE36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.1909999738</v>
+        <v>0.1004648173</v>
       </c>
       <c r="AG36" t="n">
-        <v>12.28573282</v>
+        <v>9.899664123</v>
       </c>
       <c r="AH36" t="n">
-        <v>4.16981865187</v>
+        <v>3.0500100059</v>
       </c>
       <c r="AI36" t="n">
-        <v>3.047394478</v>
+        <v>1.09995554165</v>
       </c>
       <c r="AJ36" t="n">
-        <v>4.60240966981233</v>
+        <v>4.66265184155628</v>
       </c>
       <c r="AK36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.2271429298</v>
+        <v>0.145071985</v>
       </c>
       <c r="AM36" t="n">
-        <v>1.58581125</v>
+        <v>0.8618896844</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.67674806022</v>
+        <v>0.4801019824</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.5310569821</v>
+        <v>0.4567231301</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.474265761041517</v>
+        <v>0.384057841287175</v>
       </c>
       <c r="AQ36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AR36" t="n">
-        <v>0.8028658428</v>
+        <v>0.2414260519</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.586812072</v>
+        <v>3.567648922</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.48264369795</v>
+        <v>1.41844556955</v>
       </c>
       <c r="AU36" t="n">
-        <v>1.4286003725</v>
+        <v>0.93235365215</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.667989888435215</v>
+        <v>1.56491684526697</v>
       </c>
       <c r="AW36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX36" t="n">
-        <v>0.01715131292</v>
+        <v>0.01698677161</v>
       </c>
       <c r="AY36" t="n">
-        <v>0.020194359</v>
+        <v>0.02010935307</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0.0182728539</v>
+        <v>0.01852792121</v>
       </c>
       <c r="BA36" t="n">
-        <v>0.01822668166</v>
+        <v>0.01850778008</v>
       </c>
       <c r="BB36" t="n">
-        <v>0.000878257674153491</v>
+        <v>0.00145825624227347</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B37"/>
       <c r="C37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37"/>
-      <c r="E37"/>
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G37" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H37" t="n">
+        <v>0.3271206442</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4.891769633</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.56107119705</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.5126972555</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.9704067798324</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.000446</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.005429</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.00289075</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.002844</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.00226717436103475</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.995536</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.999635</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.99752775</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.99747</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.00215654297043519</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>5.658399</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>44.994782</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>25.24518775</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>25.163785</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>20.5725872243042</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.014514</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>3.051471</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.0322755</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.5315585</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.43167663903096</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.0990716962168577</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.648381916637629</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.357429492797837</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.341132179168432</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.283950399338202</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.176915122211384</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>3.79000022437559</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>1.58654153424359</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.1896253951937</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.74035530741298</v>
+      </c>
+      <c r="AW37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>10</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.001314585174</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.008242304939</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.0030219976132</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.0020898700445</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.00221286638474041</v>
-      </c>
-      <c r="S37" t="n">
-        <v>10</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0.9973720806</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0.9994226963</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0.99881821486</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0.99896791115</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0.000613493770803941</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>2.295127417</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>6.721419692</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>4.0842945839</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>3.694122694</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>1.49775384422186</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0.3162715712</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>4.192714753</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0.99220253733</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0.5616815931</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>1.16729261570641</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>0.266925965</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>0.601763689</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>0.47289111377</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>0.51360809445</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>0.108725113835099</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>0.6986570444</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>2.070839882</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>1.11498339794</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>1.0471113315</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>0.369708985911468</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>0.01613178951</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>0.01876294872</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>0.017747698141</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>0.017752487855</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>0.000712998570275664</v>
-      </c>
+      <c r="AX37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AY37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA37"/>
+      <c r="BB37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
         <v>70</v>
       </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38"/>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
       <c r="F38" t="s">
         <v>57</v>
       </c>
       <c r="G38" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
+        <v>1.766335786</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.92280994</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.844572863</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.844572863</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.110643935373828</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.002529152347</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.002819223341</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.002674187844</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.002674187844</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.000205111166882922</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.9989831778</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.9991156514</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.9990494146</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.9990494146</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.0000936729808882055</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>43.74263502</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>44.6740719</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>44.20835346</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>44.20835346</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.65862533409524</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.1004648173</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.1004648173</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.1004648173</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.1004648173</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>10</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.001145127177</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.007925134399</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0.0039495032762</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.003948190654</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.00240759816350314</v>
-      </c>
-      <c r="S38" t="n">
-        <v>10</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.9968872433</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0.9995526362</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0.9986158732</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0.998792269</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0.000821692328304585</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>0.7939433263</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>7.198562961</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>3.04820167332</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>2.8357668475</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>2.06985691619703</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0.1155532132</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>44.73203402</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>5.50726497194</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0.327456566</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>13.9383778788801</v>
-      </c>
       <c r="AK38" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.1980738304</v>
+        <v>0.07663489617</v>
       </c>
       <c r="AM38" t="n">
-        <v>1.167792107</v>
+        <v>0.09994383088</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.48837583702</v>
+        <v>0.088289363525</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.4323807224</v>
+        <v>0.088289363525</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.304126738741303</v>
+        <v>0.0164819057956755</v>
       </c>
       <c r="AQ38" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AR38" t="n">
-        <v>0.5600416498</v>
+        <v>0.2368160362</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.877344641</v>
+        <v>0.2608171702</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.01111874502</v>
+        <v>0.2488166032</v>
       </c>
       <c r="AU38" t="n">
-        <v>1.00111610925</v>
+        <v>0.2488166032</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.421422502462599</v>
+        <v>0.016971364607567</v>
       </c>
       <c r="AW38" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.01685220944</v>
+        <v>0.01654115803</v>
       </c>
       <c r="AY38" t="n">
-        <v>0.02001019556</v>
+        <v>0.01702858706</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0.018282654112</v>
+        <v>0.016784872545</v>
       </c>
       <c r="BA38" t="n">
-        <v>0.01802119204</v>
+        <v>0.016784872545</v>
       </c>
       <c r="BB38" t="n">
-        <v>0.0010767678508609</v>
+        <v>0.000344664372460181</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B39"/>
       <c r="C39" t="s">
         <v>74</v>
       </c>
-      <c r="D39"/>
-      <c r="E39"/>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G39" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
+        <v>1.766335786</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.92280994</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.844572863</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.844572863</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.110643935373828</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.002211</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.002693</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.002452</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.002452</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.000340825468531916</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.99972</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.999842</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.999781</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.999781</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.0000862670273047273</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>36.541066</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>37.182009</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>36.8615375</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>36.8615375</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.453215141654049</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.014514</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.014514</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.014514</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.014514</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
+      <c r="AK39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.0819297245978834</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.0880630245579665</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.0849963745779249</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.0849963745779249</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.00433689799282594</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.167676762761206</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.219674444929301</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.193675603845254</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.193675603845254</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.0367679136670428</v>
+      </c>
+      <c r="AW39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>10</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.0003355399204</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.007887921169</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0.00406797889164</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.004115162413</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.00247182300139559</v>
-      </c>
-      <c r="S39" t="n">
-        <v>10</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0.996824313</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0.9996968092</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0.99877852658</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0.99893823695</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0.000827984667840882</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0.8323418807</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>8.348868372</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>2.35387375237</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>1.6548911805</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>2.22712242077432</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0.1913413681</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>4.192714753</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>1.31374597765</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0.8619015322</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>1.33722866649441</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0.1468215736</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>1.139163136</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>0.46702950769</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>0.3892112906</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>0.313398245396929</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>0.3846998791</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>1.538942513</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>0.79840677399</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>0.7038539264</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>0.407275439501926</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>0.01685242918</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>0.01897771794</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>0.017784568971</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>0.0176547103</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>0.000746777761139035</v>
-      </c>
+      <c r="AX39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AY39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA39"/>
+      <c r="BB39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" t="s">
-        <v>62</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B40"/>
       <c r="C40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" t="s">
         <v>71</v>
       </c>
-      <c r="D40"/>
-      <c r="E40"/>
+      <c r="E40" t="s">
+        <v>56</v>
+      </c>
       <c r="F40" t="s">
         <v>57</v>
       </c>
       <c r="G40" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.2796867046</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.211462816</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.51740401353333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2.06106252</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.07452927595487</v>
       </c>
       <c r="M40" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>0.000174</v>
+        <v>0.001469931208</v>
       </c>
       <c r="O40" t="n">
-        <v>0.00612</v>
+        <v>0.004537845783</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0021757</v>
+        <v>0.00289722963233333</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.0021765</v>
+        <v>0.002683911906</v>
       </c>
       <c r="R40" t="n">
-        <v>0.00174880461077465</v>
+        <v>0.00154504152020273</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T40" t="n">
-        <v>0.998483</v>
+        <v>0.9971920728</v>
       </c>
       <c r="U40" t="n">
-        <v>0.999932</v>
+        <v>0.9992655104</v>
       </c>
       <c r="V40" t="n">
-        <v>0.9995729</v>
+        <v>0.9983682546</v>
       </c>
       <c r="W40" t="n">
-        <v>0.9997555</v>
+        <v>0.9986471806</v>
       </c>
       <c r="X40" t="n">
-        <v>0.00045404856568434</v>
+        <v>0.00106448844774401</v>
       </c>
       <c r="Y40" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.688368</v>
+        <v>4.795822322</v>
       </c>
       <c r="AA40" t="n">
-        <v>10.236008</v>
+        <v>45.72611112</v>
       </c>
       <c r="AB40" t="n">
-        <v>5.4419947</v>
+        <v>31.0729556106667</v>
       </c>
       <c r="AC40" t="n">
-        <v>4.3734195</v>
+        <v>42.69693339</v>
       </c>
       <c r="AD40" t="n">
-        <v>3.48403398487469</v>
+        <v>22.8070116374931</v>
       </c>
       <c r="AE40" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.074884</v>
+        <v>0.08340500545</v>
       </c>
       <c r="AG40" t="n">
-        <v>4.027122</v>
+        <v>0.1004648173</v>
       </c>
       <c r="AH40" t="n">
-        <v>1.1598776</v>
+        <v>0.09477821335</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.748845</v>
+        <v>0.1004648173</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1.3223239117879</v>
+        <v>0.00984948696392186</v>
       </c>
       <c r="AK40" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.237940874487442</v>
+        <v>0.0925234176</v>
       </c>
       <c r="AM40" t="n">
-        <v>1.60703342609644</v>
+        <v>0.6360268217</v>
       </c>
       <c r="AN40" t="n">
-        <v>0.592444864796848</v>
+        <v>0.298697730733333</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.440267406285136</v>
+        <v>0.1675429529</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.474863226585243</v>
+        <v>0.294533817037119</v>
       </c>
       <c r="AQ40" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.694714417131445</v>
+        <v>0.1887983624</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.89811164415487</v>
+        <v>1.683337179</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.41067904070321</v>
+        <v>0.696236755566667</v>
       </c>
       <c r="AU40" t="n">
-        <v>1.28764856660556</v>
+        <v>0.2165747253</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.69423961429106</v>
+        <v>0.85496685084317</v>
       </c>
       <c r="AW40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX40" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AY40" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ40" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="BA40"/>
-      <c r="BB40"/>
+        <v>3</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0.01664714141</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0.01736527476</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0.0170320436933333</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0.01708371491</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0.000361844321593439</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" t="s">
-        <v>62</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B41"/>
       <c r="C41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41"/>
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G41" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.2796867046</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.211462816</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1.51740401353333</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2.06106252</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.07452927595487</v>
       </c>
       <c r="M41" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
-        <v>0.000718</v>
+        <v>0.001379</v>
       </c>
       <c r="O41" t="n">
-        <v>0.00502</v>
+        <v>0.006151</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0024896</v>
+        <v>0.00342733333333333</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.002462</v>
+        <v>0.002752</v>
       </c>
       <c r="R41" t="n">
-        <v>0.00139791671982116</v>
+        <v>0.00245663435075986</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T41" t="n">
-        <v>0.999305</v>
+        <v>0.999316</v>
       </c>
       <c r="U41" t="n">
-        <v>0.999944</v>
+        <v>0.999841</v>
       </c>
       <c r="V41" t="n">
-        <v>0.9997934</v>
+        <v>0.999665</v>
       </c>
       <c r="W41" t="n">
-        <v>0.9998725</v>
+        <v>0.999838</v>
       </c>
       <c r="X41" t="n">
-        <v>0.000222275704675275</v>
+        <v>0.000302246588070078</v>
       </c>
       <c r="Y41" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Z41" t="n">
-        <v>2.148054</v>
+        <v>4.104455</v>
       </c>
       <c r="AA41" t="n">
-        <v>5.832863</v>
+        <v>38.805949</v>
       </c>
       <c r="AB41" t="n">
-        <v>3.5722386</v>
+        <v>26.3736316666667</v>
       </c>
       <c r="AC41" t="n">
-        <v>3.221348</v>
+        <v>36.210491</v>
       </c>
       <c r="AD41" t="n">
-        <v>1.25358845121437</v>
+        <v>19.3292853622644</v>
       </c>
       <c r="AE41" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.075018</v>
+        <v>0.014514</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.533464</v>
+        <v>0.032655</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.215886</v>
+        <v>0.020561</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.170875</v>
+        <v>0.014514</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.134257316396538</v>
+        <v>0.010473711233369</v>
       </c>
       <c r="AK41" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.272495727822723</v>
+        <v>0.0956187692539749</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.555264307410258</v>
+        <v>0.549041810844091</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.427818750138767</v>
+        <v>0.259380258861512</v>
       </c>
       <c r="AO41" t="n">
-        <v>0.436718415225659</v>
+        <v>0.133480196486471</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.103203040569366</v>
+        <v>0.251567551446401</v>
       </c>
       <c r="AQ41" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AR41" t="n">
-        <v>0.604045639672665</v>
+        <v>0.146022944367763</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.46471802196887</v>
+        <v>1.59130841927121</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.937528692966788</v>
+        <v>0.638286608932091</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.912512734531932</v>
+        <v>0.177528463157301</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.233531789667184</v>
+        <v>0.825491415863961</v>
       </c>
       <c r="AW41" t="n">
         <v>0</v>
@@ -7064,301 +7086,279 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B42"/>
       <c r="C42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42"/>
+        <v>74</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
       <c r="F42" t="s">
         <v>57</v>
       </c>
       <c r="G42" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>5.800245268</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>5.800245268</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>5.800245268</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
+        <v>5.800245268</v>
+      </c>
+      <c r="L42"/>
       <c r="M42" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>0.000857</v>
+        <v>0.003140677635</v>
       </c>
       <c r="O42" t="n">
-        <v>0.008325</v>
+        <v>0.003140677635</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0043093</v>
+        <v>0.003140677635</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.004032</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0.00261087597262766</v>
-      </c>
+        <v>0.003140677635</v>
+      </c>
+      <c r="R42"/>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>0.982629</v>
+        <v>0.9963200889</v>
       </c>
       <c r="U42" t="n">
-        <v>0.999754</v>
+        <v>0.9963200889</v>
       </c>
       <c r="V42" t="n">
-        <v>0.9976573</v>
+        <v>0.9963200889</v>
       </c>
       <c r="W42" t="n">
-        <v>0.999295</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0.00528969476225026</v>
-      </c>
+        <v>0.9963200889</v>
+      </c>
+      <c r="X42"/>
       <c r="Y42" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.835239</v>
+        <v>41.82057545</v>
       </c>
       <c r="AA42" t="n">
-        <v>5.497821</v>
+        <v>41.82057545</v>
       </c>
       <c r="AB42" t="n">
-        <v>2.6192662</v>
+        <v>41.82057545</v>
       </c>
       <c r="AC42" t="n">
-        <v>2.584151</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>1.56907408787736</v>
-      </c>
+        <v>41.82057545</v>
+      </c>
+      <c r="AD42"/>
       <c r="AE42" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.033282</v>
+        <v>0.1868186706</v>
       </c>
       <c r="AG42" t="n">
-        <v>89.994519</v>
+        <v>0.1868186706</v>
       </c>
       <c r="AH42" t="n">
-        <v>10.9098384</v>
+        <v>0.1868186706</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.33282</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>27.9879448755867</v>
-      </c>
+        <v>0.1868186706</v>
+      </c>
+      <c r="AJ42"/>
       <c r="AK42" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AL42" t="n">
-        <v>0.167418682001339</v>
+        <v>0.4646806483</v>
       </c>
       <c r="AM42" t="n">
-        <v>0.711564006328185</v>
+        <v>0.4646806483</v>
       </c>
       <c r="AN42" t="n">
-        <v>0.41128885227434</v>
+        <v>0.4646806483</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.395243008468328</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>0.160322989588419</v>
-      </c>
+        <v>0.4646806483</v>
+      </c>
+      <c r="AP42"/>
       <c r="AQ42" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AR42" t="n">
-        <v>0.472458315278303</v>
+        <v>0.6964868487</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.18065825708156</v>
+        <v>0.6964868487</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.835051664250881</v>
+        <v>0.6964868487</v>
       </c>
       <c r="AU42" t="n">
-        <v>0.813590275692539</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>0.25381426945064</v>
-      </c>
+        <v>0.6964868487</v>
+      </c>
+      <c r="AV42"/>
       <c r="AW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX42" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AY42" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AZ42" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="BA42"/>
+        <v>1</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0.01873237941</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0.01873237941</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0.01873237941</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0.01873237941</v>
+      </c>
       <c r="BB42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B43"/>
       <c r="C43" t="s">
         <v>74</v>
       </c>
-      <c r="D43"/>
-      <c r="E43"/>
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G43" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>5.800245268</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5.800245268</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.800245268</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
+        <v>5.800245268</v>
+      </c>
+      <c r="L43"/>
       <c r="M43" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>0.000703</v>
+        <v>0.002031</v>
       </c>
       <c r="O43" t="n">
-        <v>0.008293</v>
+        <v>0.002031</v>
       </c>
       <c r="P43" t="n">
-        <v>0.004202</v>
+        <v>0.002031</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.0043375</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.00227305379513015</v>
-      </c>
+        <v>0.002031</v>
+      </c>
+      <c r="R43"/>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
-        <v>0.998998</v>
+        <v>0.999047</v>
       </c>
       <c r="U43" t="n">
-        <v>0.999857</v>
+        <v>0.999047</v>
       </c>
       <c r="V43" t="n">
-        <v>0.9995578</v>
+        <v>0.999047</v>
       </c>
       <c r="W43" t="n">
-        <v>0.9995835</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0.000253862079790482</v>
-      </c>
+        <v>0.999047</v>
+      </c>
+      <c r="X43"/>
       <c r="Y43" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.837315</v>
+        <v>34.331812</v>
       </c>
       <c r="AA43" t="n">
-        <v>6.578257</v>
+        <v>34.331812</v>
       </c>
       <c r="AB43" t="n">
-        <v>2.1136205</v>
+        <v>34.331812</v>
       </c>
       <c r="AC43" t="n">
-        <v>1.552351</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>1.71380748283576</v>
-      </c>
+        <v>34.331812</v>
+      </c>
+      <c r="AD43"/>
       <c r="AE43" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.075018</v>
+        <v>0.032655</v>
       </c>
       <c r="AG43" t="n">
-        <v>1.408678</v>
+        <v>0.032655</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.4084331</v>
+        <v>0.032655</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.2708995</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>0.432262345425514</v>
-      </c>
+        <v>0.032655</v>
+      </c>
+      <c r="AJ43"/>
       <c r="AK43" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.129403156797401</v>
+        <v>0.226601855757112</v>
       </c>
       <c r="AM43" t="n">
-        <v>0.955699412279703</v>
+        <v>0.226601855757112</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.45085590428542</v>
+        <v>0.226601855757112</v>
       </c>
       <c r="AO43" t="n">
-        <v>0.349176495714442</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>0.293744029716941</v>
-      </c>
+        <v>0.226601855757112</v>
+      </c>
+      <c r="AP43"/>
       <c r="AQ43" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AR43" t="n">
-        <v>0.385914798480832</v>
+        <v>0.543975668752222</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.8317207798495</v>
+        <v>0.543975668752222</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.769163714937585</v>
+        <v>0.543975668752222</v>
       </c>
       <c r="AU43" t="n">
-        <v>0.612284305228836</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>0.454198598647078</v>
-      </c>
+        <v>0.543975668752222</v>
+      </c>
+      <c r="AV43"/>
       <c r="AW43" t="n">
         <v>0</v>
       </c>

--- a/R_analysis/summary_stats/SSFA_summary-stats.xlsx
+++ b/R_analysis/summary_stats/SSFA_summary-stats.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="summary_stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="units" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -237,6 +238,51 @@
   </si>
   <si>
     <t xml:space="preserve">BrushDirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epLsar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;no unit&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewEplsar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rsquared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asfc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smfc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µm²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAsfc9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAsfc81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toothfrax_units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µm</t>
   </si>
 </sst>
 </file>
@@ -7378,4 +7424,98 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/R_analysis/summary_stats/SSFA_summary-stats.xlsx
+++ b/R_analysis/summary_stats/SSFA_summary-stats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t xml:space="preserve">Before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-100%</t>
   </si>
   <si>
     <t xml:space="preserve">After</t>
@@ -4899,158 +4902,142 @@
         <v>69</v>
       </c>
       <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
         <v>71</v>
-      </c>
-      <c r="E28" t="s">
-        <v>56</v>
       </c>
       <c r="F28" t="s">
         <v>57</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2394835485</v>
+        <v>45.75842242</v>
       </c>
       <c r="I28" t="n">
-        <v>4.866895738</v>
+        <v>45.75842242</v>
       </c>
       <c r="J28" t="n">
-        <v>2.971779698375</v>
+        <v>45.75842242</v>
       </c>
       <c r="K28" t="n">
-        <v>3.3903697535</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.10587103778341</v>
-      </c>
+        <v>45.75842242</v>
+      </c>
+      <c r="L28"/>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.002003087339</v>
+        <v>0.002191890821</v>
       </c>
       <c r="O28" t="n">
-        <v>0.004004750868</v>
+        <v>0.002191890821</v>
       </c>
       <c r="P28" t="n">
-        <v>0.002851159634</v>
+        <v>0.002191890821</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0026984001645</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.00083636224816724</v>
-      </c>
+        <v>0.002191890821</v>
+      </c>
+      <c r="R28"/>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9934198948</v>
+        <v>0.9971472533</v>
       </c>
       <c r="U28" t="n">
-        <v>0.9991144199</v>
+        <v>0.9971472533</v>
       </c>
       <c r="V28" t="n">
-        <v>0.9973466185</v>
+        <v>0.9971472533</v>
       </c>
       <c r="W28" t="n">
-        <v>0.99842607965</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.00269480417669345</v>
-      </c>
+        <v>0.9971472533</v>
+      </c>
+      <c r="X28"/>
       <c r="Y28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.445318468</v>
+        <v>68.22224309</v>
       </c>
       <c r="AA28" t="n">
-        <v>49.1789018</v>
+        <v>68.22224309</v>
       </c>
       <c r="AB28" t="n">
-        <v>29.909897767</v>
+        <v>68.22224309</v>
       </c>
       <c r="AC28" t="n">
-        <v>34.0076854</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>21.5713496215021</v>
-      </c>
+        <v>68.22224309</v>
+      </c>
+      <c r="AD28"/>
       <c r="AE28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.07838834353</v>
+        <v>0.3068635466</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.2250309019</v>
+        <v>0.3068635466</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.1260872200075</v>
+        <v>0.3068635466</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.1004648173</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0.066778364871343</v>
-      </c>
+        <v>0.3068635466</v>
+      </c>
+      <c r="AJ28"/>
       <c r="AK28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.1753363325</v>
+        <v>0.1617157036</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.7292764348</v>
+        <v>0.1617157036</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.406228249725</v>
+        <v>0.1617157036</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.3601501158</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>0.259898151969492</v>
-      </c>
+        <v>0.1617157036</v>
+      </c>
+      <c r="AP28"/>
       <c r="AQ28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
-        <v>0.3175200085</v>
+        <v>0.2868278611</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.478204278</v>
+        <v>0.2868278611</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.90357104865</v>
+        <v>0.2868278611</v>
       </c>
       <c r="AU28" t="n">
-        <v>0.90927995405</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>0.618889457066963</v>
-      </c>
+        <v>0.2868278611</v>
+      </c>
+      <c r="AV28"/>
       <c r="AW28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.01660217518</v>
+        <v>0.01710405668</v>
       </c>
       <c r="AY28" t="n">
-        <v>0.01869619765</v>
+        <v>0.01710405668</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0.0179062071175</v>
+        <v>0.01710405668</v>
       </c>
       <c r="BA28" t="n">
-        <v>0.01816322782</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>0.000938902161312765</v>
-      </c>
+        <v>0.01710405668</v>
+      </c>
+      <c r="BB28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -5061,140 +5048,126 @@
         <v>69</v>
       </c>
       <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
         <v>71</v>
-      </c>
-      <c r="E29" t="s">
-        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>58</v>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2394835485</v>
+        <v>45.75842242</v>
       </c>
       <c r="I29" t="n">
-        <v>4.866895738</v>
+        <v>45.75842242</v>
       </c>
       <c r="J29" t="n">
-        <v>2.971779698375</v>
+        <v>45.75842242</v>
       </c>
       <c r="K29" t="n">
-        <v>3.3903697535</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.10587103778341</v>
-      </c>
+        <v>45.75842242</v>
+      </c>
+      <c r="L29"/>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.001742</v>
+        <v>0.002427</v>
       </c>
       <c r="O29" t="n">
-        <v>0.004307</v>
+        <v>0.002427</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0029625</v>
+        <v>0.002427</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0029005</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0.00130584493719584</v>
-      </c>
+        <v>0.002427</v>
+      </c>
+      <c r="R29"/>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
-        <v>0.999254</v>
+        <v>0.999645</v>
       </c>
       <c r="U29" t="n">
-        <v>0.999792</v>
+        <v>0.999645</v>
       </c>
       <c r="V29" t="n">
-        <v>0.999478</v>
+        <v>0.999645</v>
       </c>
       <c r="W29" t="n">
-        <v>0.999433</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.000228169527617829</v>
-      </c>
+        <v>0.999645</v>
+      </c>
+      <c r="X29"/>
       <c r="Y29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.314131</v>
+        <v>56.316945</v>
       </c>
       <c r="AA29" t="n">
-        <v>41.260755</v>
+        <v>56.316945</v>
       </c>
       <c r="AB29" t="n">
-        <v>25.23230975</v>
+        <v>56.316945</v>
       </c>
       <c r="AC29" t="n">
-        <v>28.6771765</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>18.2972151098333</v>
-      </c>
+        <v>56.316945</v>
+      </c>
+      <c r="AD29"/>
       <c r="AE29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.014514</v>
+        <v>0.058054</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.09071</v>
+        <v>0.058054</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.03809825</v>
+        <v>0.058054</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.0235845</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0.0361019801153621</v>
-      </c>
+        <v>0.058054</v>
+      </c>
+      <c r="AJ29"/>
       <c r="AK29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.142359129935648</v>
+        <v>0.115188511626691</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.627918961281224</v>
+        <v>0.115188511626691</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.363768093949634</v>
+        <v>0.115188511626691</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.342397142290832</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>0.250867160114767</v>
-      </c>
+        <v>0.115188511626691</v>
+      </c>
+      <c r="AP29"/>
       <c r="AQ29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
-        <v>0.238377296804313</v>
+        <v>0.213858546040502</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.26792759112418</v>
+        <v>0.213858546040502</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.773810634947521</v>
+        <v>0.213858546040502</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.794468825930796</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>0.545706120507354</v>
-      </c>
+        <v>0.213858546040502</v>
+      </c>
+      <c r="AV29"/>
       <c r="AW29" t="n">
         <v>0</v>
       </c>
@@ -5216,10 +5189,10 @@
       </c>
       <c r="B30"/>
       <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
         <v>72</v>
-      </c>
-      <c r="D30" t="s">
-        <v>70</v>
       </c>
       <c r="E30" t="s">
         <v>56</v>
@@ -5231,145 +5204,145 @@
         <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2889421075</v>
+        <v>0.2394835485</v>
       </c>
       <c r="I30" t="n">
-        <v>4.101011153</v>
+        <v>4.866895738</v>
       </c>
       <c r="J30" t="n">
-        <v>2.866861030125</v>
+        <v>2.971779698375</v>
       </c>
       <c r="K30" t="n">
-        <v>3.53874543</v>
+        <v>3.3903697535</v>
       </c>
       <c r="L30" t="n">
-        <v>1.77674843592688</v>
+        <v>2.10587103778341</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.001557564455</v>
+        <v>0.002003087339</v>
       </c>
       <c r="O30" t="n">
-        <v>0.007075581839</v>
+        <v>0.004004750868</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0039216402375</v>
+        <v>0.002851159634</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.003526707328</v>
+        <v>0.0026984001645</v>
       </c>
       <c r="R30" t="n">
-        <v>0.00259226232461313</v>
+        <v>0.00083636224816724</v>
       </c>
       <c r="S30" t="n">
         <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9233653816</v>
+        <v>0.9934198948</v>
       </c>
       <c r="U30" t="n">
-        <v>0.9981923748</v>
+        <v>0.9991144199</v>
       </c>
       <c r="V30" t="n">
-        <v>0.97551618815</v>
+        <v>0.9973466185</v>
       </c>
       <c r="W30" t="n">
-        <v>0.9902534981</v>
+        <v>0.99842607965</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0354806249349532</v>
+        <v>0.00269480417669345</v>
       </c>
       <c r="Y30" t="n">
         <v>4</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.6949705</v>
+        <v>2.445318468</v>
       </c>
       <c r="AA30" t="n">
-        <v>55.58561369</v>
+        <v>49.1789018</v>
       </c>
       <c r="AB30" t="n">
-        <v>30.559207425</v>
+        <v>29.909897767</v>
       </c>
       <c r="AC30" t="n">
-        <v>32.478122755</v>
+        <v>34.0076854</v>
       </c>
       <c r="AD30" t="n">
-        <v>28.2912120795614</v>
+        <v>21.5713496215021</v>
       </c>
       <c r="AE30" t="n">
         <v>4</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.08340500545</v>
+        <v>0.07838834353</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.9972802751</v>
+        <v>0.2250309019</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.3204037287875</v>
+        <v>0.1260872200075</v>
       </c>
       <c r="AI30" t="n">
         <v>0.1004648173</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.451322686993152</v>
+        <v>0.066778364871343</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.1004931439</v>
+        <v>0.1753363325</v>
       </c>
       <c r="AM30" t="n">
-        <v>10.32469331</v>
+        <v>0.7292764348</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.8761120663</v>
+        <v>0.406228249725</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.53963090565</v>
+        <v>0.3601501158</v>
       </c>
       <c r="AP30" t="n">
-        <v>4.98238226572338</v>
+        <v>0.259898151969492</v>
       </c>
       <c r="AQ30" t="n">
         <v>4</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.1951037382</v>
+        <v>0.3175200085</v>
       </c>
       <c r="AS30" t="n">
-        <v>36.41591664</v>
+        <v>1.478204278</v>
       </c>
       <c r="AT30" t="n">
-        <v>10.658599809125</v>
+        <v>0.90357104865</v>
       </c>
       <c r="AU30" t="n">
-        <v>3.01168942915</v>
+        <v>0.90927995405</v>
       </c>
       <c r="AV30" t="n">
-        <v>17.3721702577839</v>
+        <v>0.618889457066963</v>
       </c>
       <c r="AW30" t="n">
         <v>4</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.01649338863</v>
+        <v>0.01660217518</v>
       </c>
       <c r="AY30" t="n">
-        <v>0.01795356794</v>
+        <v>0.01869619765</v>
       </c>
       <c r="AZ30" t="n">
-        <v>0.0170521764775</v>
+        <v>0.0179062071175</v>
       </c>
       <c r="BA30" t="n">
-        <v>0.01688087467</v>
+        <v>0.01816322782</v>
       </c>
       <c r="BB30" t="n">
-        <v>0.000637577056355895</v>
+        <v>0.000938902161312765</v>
       </c>
     </row>
     <row r="31">
@@ -5378,10 +5351,10 @@
       </c>
       <c r="B31"/>
       <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
         <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>70</v>
       </c>
       <c r="E31" t="s">
         <v>56</v>
@@ -5393,73 +5366,73 @@
         <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2889421075</v>
+        <v>0.2394835485</v>
       </c>
       <c r="I31" t="n">
-        <v>4.101011153</v>
+        <v>4.866895738</v>
       </c>
       <c r="J31" t="n">
-        <v>2.866861030125</v>
+        <v>2.971779698375</v>
       </c>
       <c r="K31" t="n">
-        <v>3.53874543</v>
+        <v>3.3903697535</v>
       </c>
       <c r="L31" t="n">
-        <v>1.77674843592688</v>
+        <v>2.10587103778341</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.001734</v>
+        <v>0.001742</v>
       </c>
       <c r="O31" t="n">
-        <v>0.009166</v>
+        <v>0.004307</v>
       </c>
       <c r="P31" t="n">
-        <v>0.00373875</v>
+        <v>0.0029625</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0020275</v>
+        <v>0.0029005</v>
       </c>
       <c r="R31" t="n">
-        <v>0.00362195539959656</v>
+        <v>0.00130584493719584</v>
       </c>
       <c r="S31" t="n">
         <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>0.996661</v>
+        <v>0.999254</v>
       </c>
       <c r="U31" t="n">
-        <v>0.999563</v>
+        <v>0.999792</v>
       </c>
       <c r="V31" t="n">
-        <v>0.998579</v>
+        <v>0.999478</v>
       </c>
       <c r="W31" t="n">
-        <v>0.999046</v>
+        <v>0.999433</v>
       </c>
       <c r="X31" t="n">
-        <v>0.00134756768537487</v>
+        <v>0.000228169527617829</v>
       </c>
       <c r="Y31" t="n">
         <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.453198</v>
+        <v>2.314131</v>
       </c>
       <c r="AA31" t="n">
-        <v>47.532028</v>
+        <v>41.260755</v>
       </c>
       <c r="AB31" t="n">
-        <v>26.59509575</v>
+        <v>25.23230975</v>
       </c>
       <c r="AC31" t="n">
-        <v>28.6975785</v>
+        <v>28.6771765</v>
       </c>
       <c r="AD31" t="n">
-        <v>23.5756902381135</v>
+        <v>18.2972151098333</v>
       </c>
       <c r="AE31" t="n">
         <v>4</v>
@@ -5468,52 +5441,52 @@
         <v>0.014514</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.928866</v>
+        <v>0.09071</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.24763725</v>
+        <v>0.03809825</v>
       </c>
       <c r="AI31" t="n">
         <v>0.0235845</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.454233008129363</v>
+        <v>0.0361019801153621</v>
       </c>
       <c r="AK31" t="n">
         <v>4</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.0735873258428672</v>
+        <v>0.142359129935648</v>
       </c>
       <c r="AM31" t="n">
-        <v>3.63859440283608</v>
+        <v>0.627918961281224</v>
       </c>
       <c r="AN31" t="n">
-        <v>1.2589910647095</v>
+        <v>0.363768093949634</v>
       </c>
       <c r="AO31" t="n">
-        <v>0.661891265079533</v>
+        <v>0.342397142290832</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.67813712666212</v>
+        <v>0.250867160114767</v>
       </c>
       <c r="AQ31" t="n">
         <v>4</v>
       </c>
       <c r="AR31" t="n">
-        <v>0.139404927919054</v>
+        <v>0.238377296804313</v>
       </c>
       <c r="AS31" t="n">
-        <v>6.98551143117234</v>
+        <v>1.26792759112418</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.72493695381651</v>
+        <v>0.773810634947521</v>
       </c>
       <c r="AU31" t="n">
-        <v>1.88741572808731</v>
+        <v>0.794468825930796</v>
       </c>
       <c r="AV31" t="n">
-        <v>3.27735427973907</v>
+        <v>0.545706120507354</v>
       </c>
       <c r="AW31" t="n">
         <v>0</v>
@@ -5536,10 +5509,10 @@
       </c>
       <c r="B32"/>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>56</v>
@@ -5551,145 +5524,145 @@
         <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2736128465</v>
+        <v>0.2889421075</v>
       </c>
       <c r="I32" t="n">
-        <v>4.661541487</v>
+        <v>4.101011153</v>
       </c>
       <c r="J32" t="n">
-        <v>2.737068466625</v>
+        <v>2.866861030125</v>
       </c>
       <c r="K32" t="n">
-        <v>3.0065597665</v>
+        <v>3.53874543</v>
       </c>
       <c r="L32" t="n">
-        <v>2.16436934525046</v>
+        <v>1.77674843592688</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0003305038118</v>
+        <v>0.001557564455</v>
       </c>
       <c r="O32" t="n">
-        <v>0.006599490184</v>
+        <v>0.007075581839</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0039659883497</v>
+        <v>0.0039216402375</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0044669797015</v>
+        <v>0.003526707328</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0028839563689639</v>
+        <v>0.00259226232461313</v>
       </c>
       <c r="S32" t="n">
         <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>0.9097145607</v>
+        <v>0.9233653816</v>
       </c>
       <c r="U32" t="n">
-        <v>0.9988839764</v>
+        <v>0.9981923748</v>
       </c>
       <c r="V32" t="n">
-        <v>0.975850219425</v>
+        <v>0.97551618815</v>
       </c>
       <c r="W32" t="n">
-        <v>0.9974011703</v>
+        <v>0.9902534981</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0441035891856082</v>
+        <v>0.0354806249349532</v>
       </c>
       <c r="Y32" t="n">
         <v>4</v>
       </c>
       <c r="Z32" t="n">
-        <v>4.197067473</v>
+        <v>1.6949705</v>
       </c>
       <c r="AA32" t="n">
-        <v>52.04521745</v>
+        <v>55.58561369</v>
       </c>
       <c r="AB32" t="n">
-        <v>22.60779744275</v>
+        <v>30.559207425</v>
       </c>
       <c r="AC32" t="n">
-        <v>17.094452424</v>
+        <v>32.478122755</v>
       </c>
       <c r="AD32" t="n">
-        <v>22.8685932726795</v>
+        <v>28.2912120795614</v>
       </c>
       <c r="AE32" t="n">
         <v>4</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.07838834353</v>
+        <v>0.08340500545</v>
       </c>
       <c r="AG32" t="n">
-        <v>3.04613068</v>
+        <v>0.9972802751</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.8501414256075</v>
+        <v>0.3204037287875</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.13802333945</v>
+        <v>0.1004648173</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1.46458381432416</v>
+        <v>0.451322686993152</v>
       </c>
       <c r="AK32" t="n">
         <v>4</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.160685842</v>
+        <v>0.1004931439</v>
       </c>
       <c r="AM32" t="n">
-        <v>5.640511661</v>
+        <v>10.32469331</v>
       </c>
       <c r="AN32" t="n">
-        <v>2.072835025425</v>
+        <v>2.8761120663</v>
       </c>
       <c r="AO32" t="n">
-        <v>1.24507129935</v>
+        <v>0.53963090565</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.56337421790091</v>
+        <v>4.98238226572338</v>
       </c>
       <c r="AQ32" t="n">
         <v>4</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.2179132886</v>
+        <v>0.1951037382</v>
       </c>
       <c r="AS32" t="n">
-        <v>10.21086867</v>
+        <v>36.41591664</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.33805785855</v>
+        <v>10.658599809125</v>
       </c>
       <c r="AU32" t="n">
-        <v>1.4617247378</v>
+        <v>3.01168942915</v>
       </c>
       <c r="AV32" t="n">
-        <v>4.67001566513468</v>
+        <v>17.3721702577839</v>
       </c>
       <c r="AW32" t="n">
         <v>4</v>
       </c>
       <c r="AX32" t="n">
-        <v>0.01595719018</v>
+        <v>0.01649338863</v>
       </c>
       <c r="AY32" t="n">
-        <v>0.01888923869</v>
+        <v>0.01795356794</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0.01732885529</v>
+        <v>0.0170521764775</v>
       </c>
       <c r="BA32" t="n">
-        <v>0.017234496145</v>
+        <v>0.01688087467</v>
       </c>
       <c r="BB32" t="n">
-        <v>0.00125497658850918</v>
+        <v>0.000637577056355895</v>
       </c>
     </row>
     <row r="33">
@@ -5698,10 +5671,10 @@
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
         <v>56</v>
@@ -5713,73 +5686,73 @@
         <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2736128465</v>
+        <v>0.2889421075</v>
       </c>
       <c r="I33" t="n">
-        <v>4.661541487</v>
+        <v>4.101011153</v>
       </c>
       <c r="J33" t="n">
-        <v>2.737068466625</v>
+        <v>2.866861030125</v>
       </c>
       <c r="K33" t="n">
-        <v>3.0065597665</v>
+        <v>3.53874543</v>
       </c>
       <c r="L33" t="n">
-        <v>2.16436934525046</v>
+        <v>1.77674843592688</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>0.000644</v>
+        <v>0.001734</v>
       </c>
       <c r="O33" t="n">
-        <v>0.009006</v>
+        <v>0.009166</v>
       </c>
       <c r="P33" t="n">
-        <v>0.00369</v>
+        <v>0.00373875</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.002555</v>
+        <v>0.0020275</v>
       </c>
       <c r="R33" t="n">
-        <v>0.00366152163269134</v>
+        <v>0.00362195539959656</v>
       </c>
       <c r="S33" t="n">
         <v>4</v>
       </c>
       <c r="T33" t="n">
-        <v>0.99525</v>
+        <v>0.996661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.999789</v>
+        <v>0.999563</v>
       </c>
       <c r="V33" t="n">
-        <v>0.9982295</v>
+        <v>0.998579</v>
       </c>
       <c r="W33" t="n">
-        <v>0.9989395</v>
+        <v>0.999046</v>
       </c>
       <c r="X33" t="n">
-        <v>0.00202812894067416</v>
+        <v>0.00134756768537487</v>
       </c>
       <c r="Y33" t="n">
         <v>4</v>
       </c>
       <c r="Z33" t="n">
-        <v>3.616868</v>
+        <v>1.453198</v>
       </c>
       <c r="AA33" t="n">
-        <v>44.129257</v>
+        <v>47.532028</v>
       </c>
       <c r="AB33" t="n">
-        <v>19.60592075</v>
+        <v>26.59509575</v>
       </c>
       <c r="AC33" t="n">
-        <v>15.338779</v>
+        <v>28.6975785</v>
       </c>
       <c r="AD33" t="n">
-        <v>19.2327629261984</v>
+        <v>23.5756902381135</v>
       </c>
       <c r="AE33" t="n">
         <v>4</v>
@@ -5791,49 +5764,49 @@
         <v>0.928866</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.26668625</v>
+        <v>0.24763725</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.0616825</v>
+        <v>0.0235845</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.442647764978261</v>
+        <v>0.454233008129363</v>
       </c>
       <c r="AK33" t="n">
         <v>4</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.103363088185532</v>
+        <v>0.0735873258428672</v>
       </c>
       <c r="AM33" t="n">
-        <v>3.07404466664286</v>
+        <v>3.63859440283608</v>
       </c>
       <c r="AN33" t="n">
-        <v>1.48085541219035</v>
+        <v>1.2589910647095</v>
       </c>
       <c r="AO33" t="n">
-        <v>1.3730069469665</v>
+        <v>0.661891265079533</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.5149265269514</v>
+        <v>1.67813712666212</v>
       </c>
       <c r="AQ33" t="n">
         <v>4</v>
       </c>
       <c r="AR33" t="n">
-        <v>0.158442470474773</v>
+        <v>0.139404927919054</v>
       </c>
       <c r="AS33" t="n">
-        <v>4.34188139028749</v>
+        <v>6.98551143117234</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.91442049832525</v>
+        <v>2.72493695381651</v>
       </c>
       <c r="AU33" t="n">
-        <v>1.57867906626938</v>
+        <v>1.88741572808731</v>
       </c>
       <c r="AV33" t="n">
-        <v>1.92128876439113</v>
+        <v>3.27735427973907</v>
       </c>
       <c r="AW33" t="n">
         <v>0</v>
@@ -5859,7 +5832,7 @@
         <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
         <v>56</v>
@@ -5871,145 +5844,145 @@
         <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>2.646177519</v>
+        <v>0.2736128465</v>
       </c>
       <c r="I34" t="n">
-        <v>4.923874312</v>
+        <v>4.661541487</v>
       </c>
       <c r="J34" t="n">
-        <v>3.97121858975</v>
+        <v>2.737068466625</v>
       </c>
       <c r="K34" t="n">
-        <v>4.157411264</v>
+        <v>3.0065597665</v>
       </c>
       <c r="L34" t="n">
-        <v>0.988439524190275</v>
+        <v>2.16436934525046</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="n">
-        <v>0.001342898516</v>
+        <v>0.0003305038118</v>
       </c>
       <c r="O34" t="n">
-        <v>0.005991581983</v>
+        <v>0.006599490184</v>
       </c>
       <c r="P34" t="n">
-        <v>0.00356916864575</v>
+        <v>0.0039659883497</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.003471097042</v>
+        <v>0.0044669797015</v>
       </c>
       <c r="R34" t="n">
-        <v>0.00218887888416554</v>
+        <v>0.0028839563689639</v>
       </c>
       <c r="S34" t="n">
         <v>4</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9935653584</v>
+        <v>0.9097145607</v>
       </c>
       <c r="U34" t="n">
-        <v>0.9988323968</v>
+        <v>0.9988839764</v>
       </c>
       <c r="V34" t="n">
-        <v>0.997009441725</v>
+        <v>0.975850219425</v>
       </c>
       <c r="W34" t="n">
-        <v>0.99782000585</v>
+        <v>0.9974011703</v>
       </c>
       <c r="X34" t="n">
-        <v>0.00240439309929278</v>
+        <v>0.0441035891856082</v>
       </c>
       <c r="Y34" t="n">
         <v>4</v>
       </c>
       <c r="Z34" t="n">
-        <v>29.63050783</v>
+        <v>4.197067473</v>
       </c>
       <c r="AA34" t="n">
-        <v>44.85846689</v>
+        <v>52.04521745</v>
       </c>
       <c r="AB34" t="n">
-        <v>36.36487685</v>
+        <v>22.60779744275</v>
       </c>
       <c r="AC34" t="n">
-        <v>35.48526634</v>
+        <v>17.094452424</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.78599069455892</v>
+        <v>22.8685932726795</v>
       </c>
       <c r="AE34" t="n">
         <v>4</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.1004648173</v>
+        <v>0.07838834353</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.3265020617</v>
+        <v>3.04613068</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.17311315575</v>
+        <v>0.8501414256075</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.132742872</v>
+        <v>0.13802333945</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.106691459824779</v>
+        <v>1.46458381432416</v>
       </c>
       <c r="AK34" t="n">
         <v>4</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.09025540084</v>
+        <v>0.160685842</v>
       </c>
       <c r="AM34" t="n">
-        <v>1.729337224</v>
+        <v>5.640511661</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.81853750061</v>
+        <v>2.072835025425</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.7272786888</v>
+        <v>1.24507129935</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.780064136384275</v>
+        <v>2.56337421790091</v>
       </c>
       <c r="AQ34" t="n">
         <v>4</v>
       </c>
       <c r="AR34" t="n">
-        <v>0.2586428146</v>
+        <v>0.2179132886</v>
       </c>
       <c r="AS34" t="n">
-        <v>5.076058089</v>
+        <v>10.21086867</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.8595322501</v>
+        <v>3.33805785855</v>
       </c>
       <c r="AU34" t="n">
-        <v>1.0517140484</v>
+        <v>1.4617247378</v>
       </c>
       <c r="AV34" t="n">
-        <v>2.24785217127257</v>
+        <v>4.67001566513468</v>
       </c>
       <c r="AW34" t="n">
         <v>4</v>
       </c>
       <c r="AX34" t="n">
-        <v>0.01708514642</v>
+        <v>0.01595719018</v>
       </c>
       <c r="AY34" t="n">
-        <v>0.01764294591</v>
+        <v>0.01888923869</v>
       </c>
       <c r="AZ34" t="n">
-        <v>0.0173270408825</v>
+        <v>0.01732885529</v>
       </c>
       <c r="BA34" t="n">
-        <v>0.0172900356</v>
+        <v>0.017234496145</v>
       </c>
       <c r="BB34" t="n">
-        <v>0.000255857898743912</v>
+        <v>0.00125497658850918</v>
       </c>
     </row>
     <row r="35">
@@ -6021,7 +5994,7 @@
         <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
         <v>56</v>
@@ -6033,73 +6006,73 @@
         <v>4</v>
       </c>
       <c r="H35" t="n">
-        <v>2.646177519</v>
+        <v>0.2736128465</v>
       </c>
       <c r="I35" t="n">
-        <v>4.923874312</v>
+        <v>4.661541487</v>
       </c>
       <c r="J35" t="n">
-        <v>3.97121858975</v>
+        <v>2.737068466625</v>
       </c>
       <c r="K35" t="n">
-        <v>4.157411264</v>
+        <v>3.0065597665</v>
       </c>
       <c r="L35" t="n">
-        <v>0.988439524190275</v>
+        <v>2.16436934525046</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="n">
-        <v>0.001843</v>
+        <v>0.000644</v>
       </c>
       <c r="O35" t="n">
-        <v>0.002678</v>
+        <v>0.009006</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0021015</v>
+        <v>0.00369</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0019425</v>
+        <v>0.002555</v>
       </c>
       <c r="R35" t="n">
-        <v>0.000394482361244876</v>
+        <v>0.00366152163269134</v>
       </c>
       <c r="S35" t="n">
         <v>4</v>
       </c>
       <c r="T35" t="n">
-        <v>0.99893</v>
+        <v>0.99525</v>
       </c>
       <c r="U35" t="n">
-        <v>0.999603</v>
+        <v>0.999789</v>
       </c>
       <c r="V35" t="n">
-        <v>0.99927075</v>
+        <v>0.9982295</v>
       </c>
       <c r="W35" t="n">
-        <v>0.999275</v>
+        <v>0.9989395</v>
       </c>
       <c r="X35" t="n">
-        <v>0.000364878404403459</v>
+        <v>0.00202812894067416</v>
       </c>
       <c r="Y35" t="n">
         <v>4</v>
       </c>
       <c r="Z35" t="n">
-        <v>23.258608</v>
+        <v>3.616868</v>
       </c>
       <c r="AA35" t="n">
-        <v>38.331227</v>
+        <v>44.129257</v>
       </c>
       <c r="AB35" t="n">
-        <v>29.811954</v>
+        <v>19.60592075</v>
       </c>
       <c r="AC35" t="n">
-        <v>28.8289905</v>
+        <v>15.338779</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.56284659651471</v>
+        <v>19.2327629261984</v>
       </c>
       <c r="AE35" t="n">
         <v>4</v>
@@ -6108,52 +6081,52 @@
         <v>0.014514</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.09071</v>
+        <v>0.928866</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.044448</v>
+        <v>0.26668625</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.036284</v>
+        <v>0.0616825</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.0370467479094544</v>
+        <v>0.442647764978261</v>
       </c>
       <c r="AK35" t="n">
         <v>4</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.0808756703113495</v>
+        <v>0.103363088185532</v>
       </c>
       <c r="AM35" t="n">
-        <v>1.15120732776973</v>
+        <v>3.07404466664286</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.611734478996843</v>
+        <v>1.48085541219035</v>
       </c>
       <c r="AO35" t="n">
-        <v>0.607427458953147</v>
+        <v>1.3730069469665</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.548302195244949</v>
+        <v>1.5149265269514</v>
       </c>
       <c r="AQ35" t="n">
         <v>4</v>
       </c>
       <c r="AR35" t="n">
-        <v>0.214061442351137</v>
+        <v>0.158442470474773</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.25215131553443</v>
+        <v>4.34188139028749</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.06061524543021</v>
+        <v>1.91442049832525</v>
       </c>
       <c r="AU35" t="n">
-        <v>0.888124111917628</v>
+        <v>1.57867906626938</v>
       </c>
       <c r="AV35" t="n">
-        <v>0.976836337978275</v>
+        <v>1.92128876439113</v>
       </c>
       <c r="AW35" t="n">
         <v>0</v>
@@ -6176,10 +6149,10 @@
       </c>
       <c r="B36"/>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
         <v>56</v>
@@ -6191,73 +6164,73 @@
         <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3271206442</v>
+        <v>2.646177519</v>
       </c>
       <c r="I36" t="n">
-        <v>4.891769633</v>
+        <v>4.923874312</v>
       </c>
       <c r="J36" t="n">
-        <v>2.56107119705</v>
+        <v>3.97121858975</v>
       </c>
       <c r="K36" t="n">
-        <v>2.5126972555</v>
+        <v>4.157411264</v>
       </c>
       <c r="L36" t="n">
-        <v>1.9704067798324</v>
+        <v>0.988439524190275</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0002049663924</v>
+        <v>0.001342898516</v>
       </c>
       <c r="O36" t="n">
-        <v>0.006006712705</v>
+        <v>0.005991581983</v>
       </c>
       <c r="P36" t="n">
-        <v>0.00304728943185</v>
+        <v>0.00356916864575</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.002988739315</v>
+        <v>0.003471097042</v>
       </c>
       <c r="R36" t="n">
-        <v>0.00255474362105596</v>
+        <v>0.00218887888416554</v>
       </c>
       <c r="S36" t="n">
         <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>0.987344213</v>
+        <v>0.9935653584</v>
       </c>
       <c r="U36" t="n">
-        <v>0.9985162009</v>
+        <v>0.9988323968</v>
       </c>
       <c r="V36" t="n">
-        <v>0.99477804315</v>
+        <v>0.997009441725</v>
       </c>
       <c r="W36" t="n">
-        <v>0.99662587935</v>
+        <v>0.99782000585</v>
       </c>
       <c r="X36" t="n">
-        <v>0.0052561963832895</v>
+        <v>0.00240439309929278</v>
       </c>
       <c r="Y36" t="n">
         <v>4</v>
       </c>
       <c r="Z36" t="n">
-        <v>5.671158448</v>
+        <v>29.63050783</v>
       </c>
       <c r="AA36" t="n">
-        <v>52.35611571</v>
+        <v>44.85846689</v>
       </c>
       <c r="AB36" t="n">
-        <v>28.93355824175</v>
+        <v>36.36487685</v>
       </c>
       <c r="AC36" t="n">
-        <v>28.8534794045</v>
+        <v>35.48526634</v>
       </c>
       <c r="AD36" t="n">
-        <v>24.7612557834655</v>
+        <v>6.78599069455892</v>
       </c>
       <c r="AE36" t="n">
         <v>4</v>
@@ -6266,70 +6239,70 @@
         <v>0.1004648173</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.899664123</v>
+        <v>0.3265020617</v>
       </c>
       <c r="AH36" t="n">
-        <v>3.0500100059</v>
+        <v>0.17311315575</v>
       </c>
       <c r="AI36" t="n">
-        <v>1.09995554165</v>
+        <v>0.132742872</v>
       </c>
       <c r="AJ36" t="n">
-        <v>4.66265184155628</v>
+        <v>0.106691459824779</v>
       </c>
       <c r="AK36" t="n">
         <v>4</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.145071985</v>
+        <v>0.09025540084</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.8618896844</v>
+        <v>1.729337224</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.4801019824</v>
+        <v>0.81853750061</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.4567231301</v>
+        <v>0.7272786888</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.384057841287175</v>
+        <v>0.780064136384275</v>
       </c>
       <c r="AQ36" t="n">
         <v>4</v>
       </c>
       <c r="AR36" t="n">
-        <v>0.2414260519</v>
+        <v>0.2586428146</v>
       </c>
       <c r="AS36" t="n">
-        <v>3.567648922</v>
+        <v>5.076058089</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.41844556955</v>
+        <v>1.8595322501</v>
       </c>
       <c r="AU36" t="n">
-        <v>0.93235365215</v>
+        <v>1.0517140484</v>
       </c>
       <c r="AV36" t="n">
-        <v>1.56491684526697</v>
+        <v>2.24785217127257</v>
       </c>
       <c r="AW36" t="n">
         <v>4</v>
       </c>
       <c r="AX36" t="n">
-        <v>0.01698677161</v>
+        <v>0.01708514642</v>
       </c>
       <c r="AY36" t="n">
-        <v>0.02010935307</v>
+        <v>0.01764294591</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0.01852792121</v>
+        <v>0.0173270408825</v>
       </c>
       <c r="BA36" t="n">
-        <v>0.01850778008</v>
+        <v>0.0172900356</v>
       </c>
       <c r="BB36" t="n">
-        <v>0.00145825624227347</v>
+        <v>0.000255857898743912</v>
       </c>
     </row>
     <row r="37">
@@ -6338,10 +6311,10 @@
       </c>
       <c r="B37"/>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
         <v>56</v>
@@ -6353,73 +6326,73 @@
         <v>4</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3271206442</v>
+        <v>2.646177519</v>
       </c>
       <c r="I37" t="n">
-        <v>4.891769633</v>
+        <v>4.923874312</v>
       </c>
       <c r="J37" t="n">
-        <v>2.56107119705</v>
+        <v>3.97121858975</v>
       </c>
       <c r="K37" t="n">
-        <v>2.5126972555</v>
+        <v>4.157411264</v>
       </c>
       <c r="L37" t="n">
-        <v>1.9704067798324</v>
+        <v>0.988439524190275</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>0.000446</v>
+        <v>0.001843</v>
       </c>
       <c r="O37" t="n">
-        <v>0.005429</v>
+        <v>0.002678</v>
       </c>
       <c r="P37" t="n">
-        <v>0.00289075</v>
+        <v>0.0021015</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.002844</v>
+        <v>0.0019425</v>
       </c>
       <c r="R37" t="n">
-        <v>0.00226717436103475</v>
+        <v>0.000394482361244876</v>
       </c>
       <c r="S37" t="n">
         <v>4</v>
       </c>
       <c r="T37" t="n">
-        <v>0.995536</v>
+        <v>0.99893</v>
       </c>
       <c r="U37" t="n">
-        <v>0.999635</v>
+        <v>0.999603</v>
       </c>
       <c r="V37" t="n">
-        <v>0.99752775</v>
+        <v>0.99927075</v>
       </c>
       <c r="W37" t="n">
-        <v>0.99747</v>
+        <v>0.999275</v>
       </c>
       <c r="X37" t="n">
-        <v>0.00215654297043519</v>
+        <v>0.000364878404403459</v>
       </c>
       <c r="Y37" t="n">
         <v>4</v>
       </c>
       <c r="Z37" t="n">
-        <v>5.658399</v>
+        <v>23.258608</v>
       </c>
       <c r="AA37" t="n">
-        <v>44.994782</v>
+        <v>38.331227</v>
       </c>
       <c r="AB37" t="n">
-        <v>25.24518775</v>
+        <v>29.811954</v>
       </c>
       <c r="AC37" t="n">
-        <v>25.163785</v>
+        <v>28.8289905</v>
       </c>
       <c r="AD37" t="n">
-        <v>20.5725872243042</v>
+        <v>6.56284659651471</v>
       </c>
       <c r="AE37" t="n">
         <v>4</v>
@@ -6428,52 +6401,52 @@
         <v>0.014514</v>
       </c>
       <c r="AG37" t="n">
-        <v>3.051471</v>
+        <v>0.09071</v>
       </c>
       <c r="AH37" t="n">
-        <v>1.0322755</v>
+        <v>0.044448</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.5315585</v>
+        <v>0.036284</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1.43167663903096</v>
+        <v>0.0370467479094544</v>
       </c>
       <c r="AK37" t="n">
         <v>4</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.0990716962168577</v>
+        <v>0.0808756703113495</v>
       </c>
       <c r="AM37" t="n">
-        <v>0.648381916637629</v>
+        <v>1.15120732776973</v>
       </c>
       <c r="AN37" t="n">
-        <v>0.357429492797837</v>
+        <v>0.611734478996843</v>
       </c>
       <c r="AO37" t="n">
-        <v>0.341132179168432</v>
+        <v>0.607427458953147</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.283950399338202</v>
+        <v>0.548302195244949</v>
       </c>
       <c r="AQ37" t="n">
         <v>4</v>
       </c>
       <c r="AR37" t="n">
-        <v>0.176915122211384</v>
+        <v>0.214061442351137</v>
       </c>
       <c r="AS37" t="n">
-        <v>3.79000022437559</v>
+        <v>2.25215131553443</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.58654153424359</v>
+        <v>1.06061524543021</v>
       </c>
       <c r="AU37" t="n">
-        <v>1.1896253951937</v>
+        <v>0.888124111917628</v>
       </c>
       <c r="AV37" t="n">
-        <v>1.74035530741298</v>
+        <v>0.976836337978275</v>
       </c>
       <c r="AW37" t="n">
         <v>0</v>
@@ -6499,7 +6472,7 @@
         <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
         <v>56</v>
@@ -6508,148 +6481,148 @@
         <v>57</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
-        <v>1.766335786</v>
+        <v>0.3271206442</v>
       </c>
       <c r="I38" t="n">
-        <v>1.92280994</v>
+        <v>4.891769633</v>
       </c>
       <c r="J38" t="n">
-        <v>1.844572863</v>
+        <v>2.56107119705</v>
       </c>
       <c r="K38" t="n">
-        <v>1.844572863</v>
+        <v>2.5126972555</v>
       </c>
       <c r="L38" t="n">
-        <v>0.110643935373828</v>
+        <v>1.9704067798324</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N38" t="n">
-        <v>0.002529152347</v>
+        <v>0.0002049663924</v>
       </c>
       <c r="O38" t="n">
-        <v>0.002819223341</v>
+        <v>0.006006712705</v>
       </c>
       <c r="P38" t="n">
-        <v>0.002674187844</v>
+        <v>0.00304728943185</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.002674187844</v>
+        <v>0.002988739315</v>
       </c>
       <c r="R38" t="n">
-        <v>0.000205111166882922</v>
+        <v>0.00255474362105596</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T38" t="n">
-        <v>0.9989831778</v>
+        <v>0.987344213</v>
       </c>
       <c r="U38" t="n">
-        <v>0.9991156514</v>
+        <v>0.9985162009</v>
       </c>
       <c r="V38" t="n">
-        <v>0.9990494146</v>
+        <v>0.99477804315</v>
       </c>
       <c r="W38" t="n">
-        <v>0.9990494146</v>
+        <v>0.99662587935</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0000936729808882055</v>
+        <v>0.0052561963832895</v>
       </c>
       <c r="Y38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z38" t="n">
-        <v>43.74263502</v>
+        <v>5.671158448</v>
       </c>
       <c r="AA38" t="n">
-        <v>44.6740719</v>
+        <v>52.35611571</v>
       </c>
       <c r="AB38" t="n">
-        <v>44.20835346</v>
+        <v>28.93355824175</v>
       </c>
       <c r="AC38" t="n">
-        <v>44.20835346</v>
+        <v>28.8534794045</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.65862533409524</v>
+        <v>24.7612557834655</v>
       </c>
       <c r="AE38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF38" t="n">
         <v>0.1004648173</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.1004648173</v>
+        <v>9.899664123</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.1004648173</v>
+        <v>3.0500100059</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.1004648173</v>
+        <v>1.09995554165</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>4.66265184155628</v>
       </c>
       <c r="AK38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.07663489617</v>
+        <v>0.145071985</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.09994383088</v>
+        <v>0.8618896844</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.088289363525</v>
+        <v>0.4801019824</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.088289363525</v>
+        <v>0.4567231301</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.0164819057956755</v>
+        <v>0.384057841287175</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR38" t="n">
-        <v>0.2368160362</v>
+        <v>0.2414260519</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.2608171702</v>
+        <v>3.567648922</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.2488166032</v>
+        <v>1.41844556955</v>
       </c>
       <c r="AU38" t="n">
-        <v>0.2488166032</v>
+        <v>0.93235365215</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.016971364607567</v>
+        <v>1.56491684526697</v>
       </c>
       <c r="AW38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.01654115803</v>
+        <v>0.01698677161</v>
       </c>
       <c r="AY38" t="n">
-        <v>0.01702858706</v>
+        <v>0.02010935307</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0.016784872545</v>
+        <v>0.01852792121</v>
       </c>
       <c r="BA38" t="n">
-        <v>0.016784872545</v>
+        <v>0.01850778008</v>
       </c>
       <c r="BB38" t="n">
-        <v>0.000344664372460181</v>
+        <v>0.00145825624227347</v>
       </c>
     </row>
     <row r="39">
@@ -6661,7 +6634,7 @@
         <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
         <v>56</v>
@@ -6670,130 +6643,130 @@
         <v>58</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>1.766335786</v>
+        <v>0.3271206442</v>
       </c>
       <c r="I39" t="n">
-        <v>1.92280994</v>
+        <v>4.891769633</v>
       </c>
       <c r="J39" t="n">
-        <v>1.844572863</v>
+        <v>2.56107119705</v>
       </c>
       <c r="K39" t="n">
-        <v>1.844572863</v>
+        <v>2.5126972555</v>
       </c>
       <c r="L39" t="n">
-        <v>0.110643935373828</v>
+        <v>1.9704067798324</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N39" t="n">
-        <v>0.002211</v>
+        <v>0.000446</v>
       </c>
       <c r="O39" t="n">
-        <v>0.002693</v>
+        <v>0.005429</v>
       </c>
       <c r="P39" t="n">
-        <v>0.002452</v>
+        <v>0.00289075</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.002452</v>
+        <v>0.002844</v>
       </c>
       <c r="R39" t="n">
-        <v>0.000340825468531916</v>
+        <v>0.00226717436103475</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T39" t="n">
-        <v>0.99972</v>
+        <v>0.995536</v>
       </c>
       <c r="U39" t="n">
-        <v>0.999842</v>
+        <v>0.999635</v>
       </c>
       <c r="V39" t="n">
-        <v>0.999781</v>
+        <v>0.99752775</v>
       </c>
       <c r="W39" t="n">
-        <v>0.999781</v>
+        <v>0.99747</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0000862670273047273</v>
+        <v>0.00215654297043519</v>
       </c>
       <c r="Y39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z39" t="n">
-        <v>36.541066</v>
+        <v>5.658399</v>
       </c>
       <c r="AA39" t="n">
-        <v>37.182009</v>
+        <v>44.994782</v>
       </c>
       <c r="AB39" t="n">
-        <v>36.8615375</v>
+        <v>25.24518775</v>
       </c>
       <c r="AC39" t="n">
-        <v>36.8615375</v>
+        <v>25.163785</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.453215141654049</v>
+        <v>20.5725872243042</v>
       </c>
       <c r="AE39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF39" t="n">
         <v>0.014514</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.014514</v>
+        <v>3.051471</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.014514</v>
+        <v>1.0322755</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.014514</v>
+        <v>0.5315585</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>1.43167663903096</v>
       </c>
       <c r="AK39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.0819297245978834</v>
+        <v>0.0990716962168577</v>
       </c>
       <c r="AM39" t="n">
-        <v>0.0880630245579665</v>
+        <v>0.648381916637629</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.0849963745779249</v>
+        <v>0.357429492797837</v>
       </c>
       <c r="AO39" t="n">
-        <v>0.0849963745779249</v>
+        <v>0.341132179168432</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.00433689799282594</v>
+        <v>0.283950399338202</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR39" t="n">
-        <v>0.167676762761206</v>
+        <v>0.176915122211384</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.219674444929301</v>
+        <v>3.79000022437559</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.193675603845254</v>
+        <v>1.58654153424359</v>
       </c>
       <c r="AU39" t="n">
-        <v>0.193675603845254</v>
+        <v>1.1896253951937</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.0367679136670428</v>
+        <v>1.74035530741298</v>
       </c>
       <c r="AW39" t="n">
         <v>0</v>
@@ -6816,10 +6789,10 @@
       </c>
       <c r="B40"/>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
         <v>56</v>
@@ -6828,148 +6801,148 @@
         <v>57</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2796867046</v>
+        <v>1.766335786</v>
       </c>
       <c r="I40" t="n">
-        <v>2.211462816</v>
+        <v>1.92280994</v>
       </c>
       <c r="J40" t="n">
-        <v>1.51740401353333</v>
+        <v>1.844572863</v>
       </c>
       <c r="K40" t="n">
-        <v>2.06106252</v>
+        <v>1.844572863</v>
       </c>
       <c r="L40" t="n">
-        <v>1.07452927595487</v>
+        <v>0.110643935373828</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N40" t="n">
-        <v>0.001469931208</v>
+        <v>0.002529152347</v>
       </c>
       <c r="O40" t="n">
-        <v>0.004537845783</v>
+        <v>0.002819223341</v>
       </c>
       <c r="P40" t="n">
-        <v>0.00289722963233333</v>
+        <v>0.002674187844</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.002683911906</v>
+        <v>0.002674187844</v>
       </c>
       <c r="R40" t="n">
-        <v>0.00154504152020273</v>
+        <v>0.000205111166882922</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9971920728</v>
+        <v>0.9989831778</v>
       </c>
       <c r="U40" t="n">
-        <v>0.9992655104</v>
+        <v>0.9991156514</v>
       </c>
       <c r="V40" t="n">
-        <v>0.9983682546</v>
+        <v>0.9990494146</v>
       </c>
       <c r="W40" t="n">
-        <v>0.9986471806</v>
+        <v>0.9990494146</v>
       </c>
       <c r="X40" t="n">
-        <v>0.00106448844774401</v>
+        <v>0.0000936729808882055</v>
       </c>
       <c r="Y40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z40" t="n">
-        <v>4.795822322</v>
+        <v>43.74263502</v>
       </c>
       <c r="AA40" t="n">
-        <v>45.72611112</v>
+        <v>44.6740719</v>
       </c>
       <c r="AB40" t="n">
-        <v>31.0729556106667</v>
+        <v>44.20835346</v>
       </c>
       <c r="AC40" t="n">
-        <v>42.69693339</v>
+        <v>44.20835346</v>
       </c>
       <c r="AD40" t="n">
-        <v>22.8070116374931</v>
+        <v>0.65862533409524</v>
       </c>
       <c r="AE40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.08340500545</v>
+        <v>0.1004648173</v>
       </c>
       <c r="AG40" t="n">
         <v>0.1004648173</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.09477821335</v>
+        <v>0.1004648173</v>
       </c>
       <c r="AI40" t="n">
         <v>0.1004648173</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.00984948696392186</v>
+        <v>0</v>
       </c>
       <c r="AK40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.0925234176</v>
+        <v>0.07663489617</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.6360268217</v>
+        <v>0.09994383088</v>
       </c>
       <c r="AN40" t="n">
-        <v>0.298697730733333</v>
+        <v>0.088289363525</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.1675429529</v>
+        <v>0.088289363525</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.294533817037119</v>
+        <v>0.0164819057956755</v>
       </c>
       <c r="AQ40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.1887983624</v>
+        <v>0.2368160362</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.683337179</v>
+        <v>0.2608171702</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.696236755566667</v>
+        <v>0.2488166032</v>
       </c>
       <c r="AU40" t="n">
-        <v>0.2165747253</v>
+        <v>0.2488166032</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.85496685084317</v>
+        <v>0.016971364607567</v>
       </c>
       <c r="AW40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX40" t="n">
-        <v>0.01664714141</v>
+        <v>0.01654115803</v>
       </c>
       <c r="AY40" t="n">
-        <v>0.01736527476</v>
+        <v>0.01702858706</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0.0170320436933333</v>
+        <v>0.016784872545</v>
       </c>
       <c r="BA40" t="n">
-        <v>0.01708371491</v>
+        <v>0.016784872545</v>
       </c>
       <c r="BB40" t="n">
-        <v>0.000361844321593439</v>
+        <v>0.000344664372460181</v>
       </c>
     </row>
     <row r="41">
@@ -6978,10 +6951,10 @@
       </c>
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
         <v>56</v>
@@ -6990,130 +6963,130 @@
         <v>58</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2796867046</v>
+        <v>1.766335786</v>
       </c>
       <c r="I41" t="n">
-        <v>2.211462816</v>
+        <v>1.92280994</v>
       </c>
       <c r="J41" t="n">
-        <v>1.51740401353333</v>
+        <v>1.844572863</v>
       </c>
       <c r="K41" t="n">
-        <v>2.06106252</v>
+        <v>1.844572863</v>
       </c>
       <c r="L41" t="n">
-        <v>1.07452927595487</v>
+        <v>0.110643935373828</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
-        <v>0.001379</v>
+        <v>0.002211</v>
       </c>
       <c r="O41" t="n">
-        <v>0.006151</v>
+        <v>0.002693</v>
       </c>
       <c r="P41" t="n">
-        <v>0.00342733333333333</v>
+        <v>0.002452</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.002752</v>
+        <v>0.002452</v>
       </c>
       <c r="R41" t="n">
-        <v>0.00245663435075986</v>
+        <v>0.000340825468531916</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>0.999316</v>
+        <v>0.99972</v>
       </c>
       <c r="U41" t="n">
-        <v>0.999841</v>
+        <v>0.999842</v>
       </c>
       <c r="V41" t="n">
-        <v>0.999665</v>
+        <v>0.999781</v>
       </c>
       <c r="W41" t="n">
-        <v>0.999838</v>
+        <v>0.999781</v>
       </c>
       <c r="X41" t="n">
-        <v>0.000302246588070078</v>
+        <v>0.0000862670273047273</v>
       </c>
       <c r="Y41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z41" t="n">
-        <v>4.104455</v>
+        <v>36.541066</v>
       </c>
       <c r="AA41" t="n">
-        <v>38.805949</v>
+        <v>37.182009</v>
       </c>
       <c r="AB41" t="n">
-        <v>26.3736316666667</v>
+        <v>36.8615375</v>
       </c>
       <c r="AC41" t="n">
-        <v>36.210491</v>
+        <v>36.8615375</v>
       </c>
       <c r="AD41" t="n">
-        <v>19.3292853622644</v>
+        <v>0.453215141654049</v>
       </c>
       <c r="AE41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF41" t="n">
         <v>0.014514</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.032655</v>
+        <v>0.014514</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.020561</v>
+        <v>0.014514</v>
       </c>
       <c r="AI41" t="n">
         <v>0.014514</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.010473711233369</v>
+        <v>0</v>
       </c>
       <c r="AK41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.0956187692539749</v>
+        <v>0.0819297245978834</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.549041810844091</v>
+        <v>0.0880630245579665</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.259380258861512</v>
+        <v>0.0849963745779249</v>
       </c>
       <c r="AO41" t="n">
-        <v>0.133480196486471</v>
+        <v>0.0849963745779249</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.251567551446401</v>
+        <v>0.00433689799282594</v>
       </c>
       <c r="AQ41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR41" t="n">
-        <v>0.146022944367763</v>
+        <v>0.167676762761206</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.59130841927121</v>
+        <v>0.219674444929301</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.638286608932091</v>
+        <v>0.193675603845254</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.177528463157301</v>
+        <v>0.193675603845254</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.825491415863961</v>
+        <v>0.0367679136670428</v>
       </c>
       <c r="AW41" t="n">
         <v>0</v>
@@ -7136,145 +7109,161 @@
       </c>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" t="s">
         <v>71</v>
-      </c>
-      <c r="E42" t="s">
-        <v>59</v>
       </c>
       <c r="F42" t="s">
         <v>57</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>5.800245268</v>
+        <v>55.29409043</v>
       </c>
       <c r="I42" t="n">
-        <v>5.800245268</v>
+        <v>57.46477162</v>
       </c>
       <c r="J42" t="n">
-        <v>5.800245268</v>
+        <v>56.379431025</v>
       </c>
       <c r="K42" t="n">
-        <v>5.800245268</v>
-      </c>
-      <c r="L42"/>
+        <v>56.379431025</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.53490338924309</v>
+      </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42" t="n">
-        <v>0.003140677635</v>
+        <v>0.005744431158</v>
       </c>
       <c r="O42" t="n">
-        <v>0.003140677635</v>
+        <v>0.006778044121</v>
       </c>
       <c r="P42" t="n">
-        <v>0.003140677635</v>
+        <v>0.0062612376395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.003140677635</v>
-      </c>
-      <c r="R42"/>
+        <v>0.0062612376395</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.000730874735259621</v>
+      </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9963200889</v>
+        <v>0.9770901387</v>
       </c>
       <c r="U42" t="n">
-        <v>0.9963200889</v>
+        <v>0.9868055389</v>
       </c>
       <c r="V42" t="n">
-        <v>0.9963200889</v>
+        <v>0.9819478388</v>
       </c>
       <c r="W42" t="n">
-        <v>0.9963200889</v>
-      </c>
-      <c r="X42"/>
+        <v>0.9819478388</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.0068698253633611</v>
+      </c>
       <c r="Y42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z42" t="n">
-        <v>41.82057545</v>
+        <v>57.26896146</v>
       </c>
       <c r="AA42" t="n">
-        <v>41.82057545</v>
+        <v>60.77623934</v>
       </c>
       <c r="AB42" t="n">
-        <v>41.82057545</v>
+        <v>59.0226004</v>
       </c>
       <c r="AC42" t="n">
-        <v>41.82057545</v>
-      </c>
-      <c r="AD42"/>
+        <v>59.0226004</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>2.48001997245358</v>
+      </c>
       <c r="AE42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.1868186706</v>
+        <v>0.03499639624</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.1868186706</v>
+        <v>0.03723607985</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.1868186706</v>
+        <v>0.036116238045</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.1868186706</v>
-      </c>
-      <c r="AJ42"/>
+        <v>0.036116238045</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.00158369546834337</v>
+      </c>
       <c r="AK42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL42" t="n">
-        <v>0.4646806483</v>
+        <v>0.081692759</v>
       </c>
       <c r="AM42" t="n">
-        <v>0.4646806483</v>
+        <v>0.2011823972</v>
       </c>
       <c r="AN42" t="n">
-        <v>0.4646806483</v>
+        <v>0.1414375781</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.4646806483</v>
-      </c>
-      <c r="AP42"/>
+        <v>0.1414375781</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.0844919334527471</v>
+      </c>
       <c r="AQ42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR42" t="n">
-        <v>0.6964868487</v>
+        <v>0.2352776998</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.6964868487</v>
+        <v>0.2521953865</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.6964868487</v>
+        <v>0.24373654315</v>
       </c>
       <c r="AU42" t="n">
-        <v>0.6964868487</v>
-      </c>
-      <c r="AV42"/>
+        <v>0.24373654315</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0.0119626109875595</v>
+      </c>
       <c r="AW42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX42" t="n">
-        <v>0.01873237941</v>
+        <v>0.01544707514</v>
       </c>
       <c r="AY42" t="n">
-        <v>0.01873237941</v>
+        <v>0.02046846467</v>
       </c>
       <c r="AZ42" t="n">
-        <v>0.01873237941</v>
+        <v>0.017957769905</v>
       </c>
       <c r="BA42" t="n">
-        <v>0.01873237941</v>
-      </c>
-      <c r="BB42"/>
+        <v>0.017957769905</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0.00355065858764213</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -7282,129 +7271,143 @@
       </c>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" t="s">
         <v>71</v>
-      </c>
-      <c r="E43" t="s">
-        <v>59</v>
       </c>
       <c r="F43" t="s">
         <v>58</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>5.800245268</v>
+        <v>55.29409043</v>
       </c>
       <c r="I43" t="n">
-        <v>5.800245268</v>
+        <v>57.46477162</v>
       </c>
       <c r="J43" t="n">
-        <v>5.800245268</v>
+        <v>56.379431025</v>
       </c>
       <c r="K43" t="n">
-        <v>5.800245268</v>
-      </c>
-      <c r="L43"/>
+        <v>56.379431025</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.53490338924309</v>
+      </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>0.002031</v>
+        <v>0.005426</v>
       </c>
       <c r="O43" t="n">
-        <v>0.002031</v>
+        <v>0.006865</v>
       </c>
       <c r="P43" t="n">
-        <v>0.002031</v>
+        <v>0.0061455</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.002031</v>
-      </c>
-      <c r="R43"/>
+        <v>0.0061455</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.00101752665812744</v>
+      </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T43" t="n">
-        <v>0.999047</v>
+        <v>0.981503</v>
       </c>
       <c r="U43" t="n">
-        <v>0.999047</v>
+        <v>0.98301</v>
       </c>
       <c r="V43" t="n">
-        <v>0.999047</v>
+        <v>0.9822565</v>
       </c>
       <c r="W43" t="n">
-        <v>0.999047</v>
-      </c>
-      <c r="X43"/>
+        <v>0.9822565</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.00106560991924815</v>
+      </c>
       <c r="Y43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z43" t="n">
-        <v>34.331812</v>
+        <v>37.089792</v>
       </c>
       <c r="AA43" t="n">
-        <v>34.331812</v>
+        <v>37.643126</v>
       </c>
       <c r="AB43" t="n">
-        <v>34.331812</v>
+        <v>37.366459</v>
       </c>
       <c r="AC43" t="n">
-        <v>34.331812</v>
-      </c>
-      <c r="AD43"/>
+        <v>37.366459</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.391266223661077</v>
+      </c>
       <c r="AE43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.032655</v>
+        <v>0.014514</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.032655</v>
+        <v>0.014514</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.032655</v>
+        <v>0.014514</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.032655</v>
-      </c>
-      <c r="AJ43"/>
+        <v>0.014514</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
       <c r="AK43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.226601855757112</v>
+        <v>0.102416813228951</v>
       </c>
       <c r="AM43" t="n">
-        <v>0.226601855757112</v>
+        <v>0.27295621724758</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.226601855757112</v>
+        <v>0.187686515238266</v>
       </c>
       <c r="AO43" t="n">
-        <v>0.226601855757112</v>
-      </c>
-      <c r="AP43"/>
+        <v>0.187686515238266</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.120589569041085</v>
+      </c>
       <c r="AQ43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR43" t="n">
-        <v>0.543975668752222</v>
+        <v>0.20086601338756</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.543975668752222</v>
+        <v>0.297382541495459</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.543975668752222</v>
+        <v>0.24912427744151</v>
       </c>
       <c r="AU43" t="n">
-        <v>0.543975668752222</v>
-      </c>
-      <c r="AV43"/>
+        <v>0.24912427744151</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.0682474915216774</v>
+      </c>
       <c r="AW43" t="n">
         <v>0</v>
       </c>
@@ -7419,6 +7422,616 @@
       </c>
       <c r="BA43"/>
       <c r="BB43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.2796867046</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.211462816</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.51740401353333</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.06106252</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.07452927595487</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.001469931208</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.004537845783</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.00289722963233333</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.002683911906</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.00154504152020273</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.9971920728</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.9992655104</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.9983682546</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.9986471806</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.00106448844774401</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>4.795822322</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>45.72611112</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>31.0729556106667</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>42.69693339</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>22.8070116374931</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.08340500545</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.1004648173</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.09477821335</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.1004648173</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.00984948696392186</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.0925234176</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.6360268217</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.298697730733333</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.1675429529</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.294533817037119</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.1887983624</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>1.683337179</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.696236755566667</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.2165747253</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.85496685084317</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0.01664714141</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0.01736527476</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0.0170320436933333</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0.01708371491</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0.000361844321593439</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.2796867046</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.211462816</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.51740401353333</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.06106252</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.07452927595487</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.001379</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.006151</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.00342733333333333</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.002752</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.00245663435075986</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.999316</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.999841</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.999665</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.999838</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.000302246588070078</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>4.104455</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>38.805949</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>26.3736316666667</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>36.210491</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>19.3292853622644</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.014514</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.032655</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.020561</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.014514</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.010473711233369</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.0956187692539749</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.549041810844091</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.259380258861512</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.133480196486471</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.251567551446401</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.146022944367763</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1.59130841927121</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.638286608932091</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.177528463157301</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0.825491415863961</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AY45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA45"/>
+      <c r="BB45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5.800245268</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.800245268</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5.800245268</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5.800245268</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.003140677635</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.003140677635</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.003140677635</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.003140677635</v>
+      </c>
+      <c r="R46"/>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.9963200889</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.9963200889</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.9963200889</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.9963200889</v>
+      </c>
+      <c r="X46"/>
+      <c r="Y46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>41.82057545</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>41.82057545</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>41.82057545</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>41.82057545</v>
+      </c>
+      <c r="AD46"/>
+      <c r="AE46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.1868186706</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.1868186706</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0.1868186706</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0.1868186706</v>
+      </c>
+      <c r="AJ46"/>
+      <c r="AK46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0.4646806483</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0.4646806483</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0.4646806483</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0.4646806483</v>
+      </c>
+      <c r="AP46"/>
+      <c r="AQ46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.6964868487</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0.6964868487</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0.6964868487</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0.6964868487</v>
+      </c>
+      <c r="AV46"/>
+      <c r="AW46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0.01873237941</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0.01873237941</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0.01873237941</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0.01873237941</v>
+      </c>
+      <c r="BB46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5.800245268</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.800245268</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5.800245268</v>
+      </c>
+      <c r="K47" t="n">
+        <v>5.800245268</v>
+      </c>
+      <c r="L47"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.002031</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.002031</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.002031</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.002031</v>
+      </c>
+      <c r="R47"/>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.999047</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.999047</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.999047</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.999047</v>
+      </c>
+      <c r="X47"/>
+      <c r="Y47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>34.331812</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>34.331812</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>34.331812</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>34.331812</v>
+      </c>
+      <c r="AD47"/>
+      <c r="AE47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.032655</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0.032655</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0.032655</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0.032655</v>
+      </c>
+      <c r="AJ47"/>
+      <c r="AK47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0.226601855757112</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0.226601855757112</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0.226601855757112</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.226601855757112</v>
+      </c>
+      <c r="AP47"/>
+      <c r="AQ47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.543975668752222</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0.543975668752222</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0.543975668752222</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0.543975668752222</v>
+      </c>
+      <c r="AV47"/>
+      <c r="AW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AY47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA47"/>
+      <c r="BB47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7436,82 +8049,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
         <v>81</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
